--- a/sriramModel-nelson-atypical-patientID_26-sims-acth-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_26-sims-acth-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.66363508811988</v>
+        <v>19.65403693435345</v>
       </c>
       <c r="C2">
-        <v>19.79953734596863</v>
+        <v>19.6245638476895</v>
       </c>
       <c r="D2">
-        <v>19.66408183013542</v>
+        <v>19.70423144641106</v>
       </c>
       <c r="E2">
-        <v>19.65982591389516</v>
+        <v>19.62281559712138</v>
       </c>
       <c r="F2">
-        <v>19.68465742019685</v>
+        <v>19.60968112607582</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.63165355547719</v>
+        <v>19.61491231443749</v>
       </c>
       <c r="C3">
-        <v>19.90284974091135</v>
+        <v>19.55755880667489</v>
       </c>
       <c r="D3">
-        <v>19.63461137048003</v>
+        <v>19.71428929252036</v>
       </c>
       <c r="E3">
-        <v>19.62452721324425</v>
+        <v>19.55333774897632</v>
       </c>
       <c r="F3">
-        <v>19.67307527392297</v>
+        <v>19.5277403677552</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.60401132217616</v>
+        <v>19.58260980258858</v>
       </c>
       <c r="C4">
-        <v>20.00981074421666</v>
+        <v>19.49888635174266</v>
       </c>
       <c r="D4">
-        <v>19.61150107631434</v>
+        <v>19.73013781351866</v>
       </c>
       <c r="E4">
-        <v>19.59402917302589</v>
+        <v>19.49155175698467</v>
       </c>
       <c r="F4">
-        <v>19.66519669931018</v>
+        <v>19.45413947040154</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.58066494800457</v>
+        <v>19.55711269396604</v>
       </c>
       <c r="C5">
-        <v>20.12029387713548</v>
+        <v>19.44845459092641</v>
       </c>
       <c r="D5">
-        <v>19.59466643358369</v>
+        <v>19.75174132084006</v>
       </c>
       <c r="E5">
-        <v>19.56825985301413</v>
+        <v>19.43744271157361</v>
       </c>
       <c r="F5">
-        <v>19.66096654974751</v>
+        <v>19.38884137616555</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.56157179926195</v>
+        <v>19.5384044744202</v>
       </c>
       <c r="C6">
-        <v>20.23417332222578</v>
+        <v>19.40617767945605</v>
       </c>
       <c r="D6">
-        <v>19.58402577078811</v>
+        <v>19.77906467272382</v>
       </c>
       <c r="E6">
-        <v>19.5471498499598</v>
+        <v>19.3909959944335</v>
       </c>
       <c r="F6">
-        <v>19.66033143621471</v>
+        <v>19.33181040106517</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.54669001931182</v>
+        <v>19.52646880870746</v>
       </c>
       <c r="C7">
-        <v>20.35132334739188</v>
+        <v>19.37197514127863</v>
       </c>
       <c r="D7">
-        <v>19.57950025024252</v>
+        <v>19.81207323524985</v>
       </c>
       <c r="E7">
-        <v>19.53063224309829</v>
+        <v>19.35219725328804</v>
       </c>
       <c r="F7">
-        <v>19.66323957370511</v>
+        <v>19.28301220401958</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.53597857208042</v>
+        <v>19.52128953334579</v>
       </c>
       <c r="C8">
-        <v>20.47161824633373</v>
+        <v>19.34577126725443</v>
       </c>
       <c r="D8">
-        <v>19.58101357673796</v>
+        <v>19.85073286340529</v>
       </c>
       <c r="E8">
-        <v>19.51864235428382</v>
+        <v>19.32103238582045</v>
       </c>
       <c r="F8">
-        <v>19.66964079686407</v>
+        <v>19.24241362635721</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.52939715969445</v>
+        <v>19.5228506527176</v>
       </c>
       <c r="C9">
-        <v>20.59493231206287</v>
+        <v>19.32749464957444</v>
       </c>
       <c r="D9">
-        <v>19.58849173825478</v>
+        <v>19.8950098882467</v>
       </c>
       <c r="E9">
-        <v>19.51111752218669</v>
+        <v>19.29748752677985</v>
       </c>
       <c r="F9">
-        <v>19.67948643553101</v>
+        <v>19.20998261072899</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.52690618381407</v>
+        <v>19.53113633400658</v>
       </c>
       <c r="C10">
-        <v>20.72113978575439</v>
+        <v>19.31707776179905</v>
       </c>
       <c r="D10">
-        <v>19.6018628727242</v>
+        <v>19.94487110628268</v>
       </c>
       <c r="E10">
-        <v>19.50799695090966</v>
+        <v>19.28154903163735</v>
       </c>
       <c r="F10">
-        <v>19.69272919568564</v>
+        <v>19.18568814029347</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.52846672771043</v>
+        <v>19.54613090050185</v>
       </c>
       <c r="C11">
-        <v>20.8501147886313</v>
+        <v>19.31445663148167</v>
       </c>
       <c r="D11">
-        <v>19.62105711347466</v>
+        <v>20.00028377033918</v>
       </c>
       <c r="E11">
-        <v>19.50922158170559</v>
+        <v>19.27320346446403</v>
       </c>
       <c r="F11">
-        <v>19.70932308510448</v>
+        <v>19.16950015786749</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.53404053160262</v>
+        <v>19.56781882709738</v>
       </c>
       <c r="C12">
-        <v>20.98173125748757</v>
+        <v>19.31957055905576</v>
       </c>
       <c r="D12">
-        <v>19.64600640078189</v>
+        <v>20.06121557707633</v>
       </c>
       <c r="E12">
-        <v>19.5147339260441</v>
+        <v>19.2724375853829</v>
       </c>
       <c r="F12">
-        <v>19.72922336497533</v>
+        <v>19.16138949435629</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.54358996112353</v>
+        <v>19.5961847330915</v>
       </c>
       <c r="C13">
-        <v>21.1158628822649</v>
+        <v>19.33236166975039</v>
       </c>
       <c r="D13">
-        <v>19.67664431509331</v>
+        <v>20.12763465312882</v>
       </c>
       <c r="E13">
-        <v>19.52447791495145</v>
+        <v>19.27923833440666</v>
       </c>
       <c r="F13">
-        <v>19.75238648164352</v>
+        <v>19.16132780804502</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.55707797393321</v>
+        <v>19.63121337904101</v>
       </c>
       <c r="C14">
-        <v>21.25238304814227</v>
+        <v>19.35277476471391</v>
       </c>
       <c r="D14">
-        <v>19.7129059225845</v>
+        <v>20.19950955140101</v>
       </c>
       <c r="E14">
-        <v>19.53839876661057</v>
+        <v>19.29359281708948</v>
       </c>
       <c r="F14">
-        <v>19.77876998629139</v>
+        <v>19.16928753180127</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.57446808712001</v>
+        <v>19.67288965880701</v>
       </c>
       <c r="C15">
-        <v>21.39116478957731</v>
+        <v>19.38075715021174</v>
       </c>
       <c r="D15">
-        <v>19.75472762896471</v>
+        <v>20.27680923750734</v>
       </c>
       <c r="E15">
-        <v>19.55644285815836</v>
+        <v>19.31548829058276</v>
       </c>
       <c r="F15">
-        <v>19.80833246799987</v>
+        <v>19.18524181522475</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.59572434437602</v>
+        <v>19.72119859017437</v>
       </c>
       <c r="C16">
-        <v>21.53208072825543</v>
+        <v>19.41625839175279</v>
       </c>
       <c r="D16">
-        <v>19.80204701921922</v>
+        <v>20.35950307583358</v>
       </c>
       <c r="E16">
-        <v>19.57855758159253</v>
+        <v>19.34491214932078</v>
       </c>
       <c r="F16">
-        <v>19.8410334929169</v>
+        <v>19.20916448278665</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.6208112834248</v>
+        <v>19.77612531162458</v>
       </c>
       <c r="C17">
-        <v>21.6750030186934</v>
+        <v>19.45923011779851</v>
       </c>
       <c r="D17">
-        <v>19.85480270468236</v>
+        <v>20.44756083247546</v>
       </c>
       <c r="E17">
-        <v>19.60469127020152</v>
+        <v>19.38185191295014</v>
       </c>
       <c r="F17">
-        <v>19.87683354455458</v>
+        <v>19.24103000103969</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.64969389862517</v>
+        <v>19.83765507354528</v>
       </c>
       <c r="C18">
-        <v>21.8198033041156</v>
+        <v>19.50962587375841</v>
       </c>
       <c r="D18">
-        <v>19.91293414639179</v>
+        <v>20.54095264002569</v>
       </c>
       <c r="E18">
-        <v>19.63479304778803</v>
+        <v>19.4262952116742</v>
       </c>
       <c r="F18">
-        <v>19.91569396320705</v>
+        <v>19.28081340657477</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.68233760190202</v>
+        <v>19.90577323294229</v>
       </c>
       <c r="C19">
-        <v>21.96635270170933</v>
+        <v>19.56740098444684</v>
       </c>
       <c r="D19">
-        <v>19.97638153553741</v>
+        <v>20.63964901051271</v>
       </c>
       <c r="E19">
-        <v>19.66881269366961</v>
+        <v>19.4782297685937</v>
       </c>
       <c r="F19">
-        <v>19.95757688482188</v>
+        <v>19.328490277994</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.71870817047217</v>
+        <v>19.98046524526239</v>
       </c>
       <c r="C20">
-        <v>22.11452172241731</v>
+        <v>19.63251241757391</v>
       </c>
       <c r="D20">
-        <v>20.04508564290288</v>
+        <v>20.7436208121102</v>
       </c>
       <c r="E20">
-        <v>19.70670054255083</v>
+        <v>19.53764338275349</v>
       </c>
       <c r="F20">
-        <v>20.00244517970376</v>
+        <v>19.38403669534346</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.75877172864539</v>
+        <v>20.06171665701475</v>
       </c>
       <c r="C21">
-        <v>22.26418027875405</v>
+        <v>19.70491865909332</v>
       </c>
       <c r="D21">
-        <v>20.11898755754817</v>
+        <v>20.85283926665906</v>
       </c>
       <c r="E21">
-        <v>19.74840733026772</v>
+        <v>19.60452390784803</v>
       </c>
       <c r="F21">
-        <v>20.05026239084879</v>
+        <v>19.44742920137772</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.80249464943017</v>
+        <v>20.14951309605072</v>
       </c>
       <c r="C22">
-        <v>22.41519760042456</v>
+        <v>19.78457959654955</v>
       </c>
       <c r="D22">
-        <v>20.19802856573114</v>
+        <v>20.96727594299042</v>
       </c>
       <c r="E22">
-        <v>19.79388409046361</v>
+        <v>19.67885923783702</v>
       </c>
       <c r="F22">
-        <v>20.10099267130048</v>
+        <v>19.51864477796739</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.84984360526109</v>
+        <v>20.24384026215028</v>
       </c>
       <c r="C23">
-        <v>22.56744223092249</v>
+        <v>19.87145641686316</v>
       </c>
       <c r="D23">
-        <v>20.28214990956931</v>
+        <v>21.08690274639847</v>
       </c>
       <c r="E23">
-        <v>19.84308204244372</v>
+        <v>19.76063727255983</v>
       </c>
       <c r="F23">
-        <v>20.15460071980169</v>
+        <v>19.59766080681913</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.90078537034173</v>
+        <v>20.34468391745608</v>
       </c>
       <c r="C24">
-        <v>22.720781968864</v>
+        <v>19.96551151179835</v>
       </c>
       <c r="D24">
-        <v>20.37129258121174</v>
+        <v>21.21169191156422</v>
       </c>
       <c r="E24">
-        <v>19.89595245947207</v>
+        <v>19.84984591375171</v>
       </c>
       <c r="F24">
-        <v>20.21105171403981</v>
+        <v>19.68445503602851</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.9552868655904</v>
+        <v>20.45202987495223</v>
       </c>
       <c r="C25">
-        <v>22.87508388112199</v>
+        <v>20.06670838737681</v>
       </c>
       <c r="D25">
-        <v>20.46539709950001</v>
+        <v>21.34161599139657</v>
       </c>
       <c r="E25">
-        <v>19.95244654489098</v>
+        <v>19.94647302127726</v>
       </c>
       <c r="F25">
-        <v>20.27031124080437</v>
+        <v>19.77900554568314</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>20.01331500851483</v>
+        <v>20.5658639863942</v>
       </c>
       <c r="C26">
-        <v>23.03021422725737</v>
+        <v>20.17501157675873</v>
       </c>
       <c r="D26">
-        <v>20.56440327592103</v>
+        <v>21.47664785101668</v>
       </c>
       <c r="E26">
-        <v>20.01251527788892</v>
+        <v>20.05050638125422</v>
       </c>
       <c r="F26">
-        <v>20.33234522086218</v>
+        <v>19.88129071556116</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>20.07483666148104</v>
+        <v>20.6861721292297</v>
       </c>
       <c r="C27">
-        <v>23.18603853910871</v>
+        <v>20.29038655597738</v>
       </c>
       <c r="D27">
-        <v>20.66824992885422</v>
+        <v>21.61676065569134</v>
       </c>
       <c r="E27">
-        <v>20.07610927742884</v>
+        <v>20.16193366773649</v>
       </c>
       <c r="F27">
-        <v>20.39711983515647</v>
+        <v>19.99128919340538</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>20.13981855320383</v>
+        <v>20.81294019247641</v>
       </c>
       <c r="C28">
-        <v>23.34242151280977</v>
+        <v>20.41279966253233</v>
       </c>
       <c r="D28">
-        <v>20.77687454410846</v>
+        <v>21.7619278650122</v>
       </c>
       <c r="E28">
-        <v>20.14317865167525</v>
+        <v>20.280742406726</v>
       </c>
       <c r="F28">
-        <v>20.46460143641959</v>
+        <v>20.10897986189385</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>20.20822715298444</v>
+        <v>20.94615405891883</v>
       </c>
       <c r="C29">
-        <v>23.49922708620823</v>
+        <v>20.54221801600767</v>
       </c>
       <c r="D29">
-        <v>20.89021296949538</v>
+        <v>21.91212322305066</v>
       </c>
       <c r="E29">
-        <v>20.21367283712424</v>
+        <v>20.40691992679776</v>
       </c>
       <c r="F29">
-        <v>20.53475646000248</v>
+        <v>20.23434180679909</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>20.28002857979516</v>
+        <v>21.08579958675774</v>
       </c>
       <c r="C30">
-        <v>23.65631837010026</v>
+        <v>20.67860944053571</v>
       </c>
       <c r="D30">
-        <v>21.00819899360447</v>
+        <v>22.06732075122612</v>
       </c>
       <c r="E30">
-        <v>20.28754043189813</v>
+        <v>20.54045330172089</v>
       </c>
       <c r="F30">
-        <v>20.60755132538924</v>
+        <v>20.36735428220051</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>20.35518846545992</v>
+        <v>21.23186259114152</v>
       </c>
       <c r="C31">
-        <v>23.81355767872684</v>
+        <v>20.82194238686872</v>
       </c>
       <c r="D31">
-        <v>21.13076390852748</v>
+        <v>22.22749473865508</v>
       </c>
       <c r="E31">
-        <v>20.36472901347694</v>
+        <v>20.68132929928808</v>
       </c>
       <c r="F31">
-        <v>20.682952328154</v>
+        <v>20.50799667416885</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>20.43367177162552</v>
+        <v>21.38432881773821</v>
       </c>
       <c r="C32">
-        <v>23.97080650954897</v>
+        <v>20.97218585189421</v>
       </c>
       <c r="D32">
-        <v>21.25783604496874</v>
+        <v>22.39261973368703</v>
       </c>
       <c r="E32">
-        <v>20.4451849528721</v>
+        <v>20.82953429493514</v>
       </c>
       <c r="F32">
-        <v>20.76092552068401</v>
+        <v>20.65624846340372</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>20.51544270050761</v>
+        <v>21.54318391661628</v>
       </c>
       <c r="C33">
-        <v>24.12792556216563</v>
+        <v>21.1293092952324</v>
       </c>
       <c r="D33">
-        <v>21.38934023508099</v>
+        <v>22.56267053478766</v>
       </c>
       <c r="E33">
-        <v>20.52885319099709</v>
+        <v>20.98505418476796</v>
       </c>
       <c r="F33">
-        <v>20.84143657958008</v>
+        <v>20.81208918425513</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>20.60046439528825</v>
+        <v>21.70841341485743</v>
       </c>
       <c r="C34">
-        <v>24.28477472933616</v>
+        <v>21.29328255174374</v>
       </c>
       <c r="D34">
-        <v>21.52519713641656</v>
+        <v>22.73762217951651</v>
       </c>
       <c r="E34">
-        <v>20.61567701210567</v>
+        <v>21.14787431049692</v>
       </c>
       <c r="F34">
-        <v>20.92445065723486</v>
+        <v>20.97549838050825</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>20.68869881621408</v>
+        <v>21.88000267884924</v>
       </c>
       <c r="C35">
-        <v>24.44121312938158</v>
+        <v>21.46407573831498</v>
       </c>
       <c r="D35">
-        <v>21.66532251676907</v>
+        <v>22.91744993468757</v>
       </c>
       <c r="E35">
-        <v>20.70559779888152</v>
+        <v>21.31797931629976</v>
       </c>
       <c r="F35">
-        <v>21.0099322145794</v>
+        <v>21.14645555753098</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>20.78010644117166</v>
+        <v>22.05793687374777</v>
       </c>
       <c r="C36">
-        <v>24.59709909818701</v>
+        <v>21.64165915307162</v>
       </c>
       <c r="D36">
-        <v>21.8096265405743</v>
+        <v>23.10212928544424</v>
       </c>
       <c r="E36">
-        <v>20.79855475500077</v>
+        <v>21.49535301835801</v>
       </c>
       <c r="F36">
-        <v>21.09784483135404</v>
+        <v>21.32494013112698</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>20.87464594010906</v>
+        <v>22.24220092069012</v>
       </c>
       <c r="C37">
-        <v>24.75229022265472</v>
+        <v>21.82600316586273</v>
       </c>
       <c r="D37">
-        <v>21.95801270102126</v>
+        <v>23.29163592044544</v>
       </c>
       <c r="E37">
-        <v>20.89448459208593</v>
+        <v>21.67997828582548</v>
       </c>
       <c r="F37">
-        <v>21.18815098946585</v>
+        <v>21.51093136810018</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>20.97227398885772</v>
+        <v>22.43277944244633</v>
       </c>
       <c r="C38">
-        <v>24.90664334402486</v>
+        <v>22.01707809436401</v>
       </c>
       <c r="D38">
-        <v>22.11037677932202</v>
+        <v>23.48594572380207</v>
       </c>
       <c r="E38">
-        <v>20.99332119432756</v>
+        <v>21.8718368027104</v>
       </c>
       <c r="F38">
-        <v>21.28081182400116</v>
+        <v>21.70440831916507</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>21.07294468064106</v>
+        <v>22.62965669729322</v>
       </c>
       <c r="C39">
-        <v>25.06001458014854</v>
+        <v>22.21485406613821</v>
       </c>
       <c r="D39">
-        <v>22.26660574465025</v>
+        <v>23.68503475358091</v>
       </c>
       <c r="E39">
-        <v>21.094995259685</v>
+        <v>22.07090888032975</v>
       </c>
       <c r="F39">
-        <v>21.37578683521216</v>
+        <v>21.90534974313669</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>21.17660928377373</v>
+        <v>22.83281650836726</v>
       </c>
       <c r="C40">
-        <v>25.21225933582146</v>
+        <v>22.41930086156599</v>
       </c>
       <c r="D40">
-        <v>22.42657621639134</v>
+        <v>23.88887922686036</v>
       </c>
       <c r="E40">
-        <v>21.1994338543371</v>
+        <v>22.2771732297379</v>
       </c>
       <c r="F40">
-        <v>21.47303355322269</v>
+        <v>22.11373402436442</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>21.28321561908475</v>
+        <v>23.04224218600343</v>
       </c>
       <c r="C41">
-        <v>25.36323232115501</v>
+        <v>22.63038773365266</v>
       </c>
       <c r="D41">
-        <v>22.59015283070516</v>
+        <v>24.09745549934677</v>
       </c>
       <c r="E41">
-        <v>21.30655993597473</v>
+        <v>22.49060659210524</v>
       </c>
       <c r="F41">
-        <v>21.57250714235662</v>
+        <v>22.32953907017195</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>21.39270739830388</v>
+        <v>23.25791641353392</v>
       </c>
       <c r="C42">
-        <v>25.51278759065746</v>
+        <v>22.84808319946794</v>
       </c>
       <c r="D42">
-        <v>22.75718651556144</v>
+        <v>24.31074004215065</v>
       </c>
       <c r="E42">
-        <v>21.4162918037126</v>
+        <v>22.7111834479884</v>
       </c>
       <c r="F42">
-        <v>21.67415993885178</v>
+        <v>22.55274219497477</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>21.50502384636859</v>
+        <v>23.47982112792172</v>
       </c>
       <c r="C43">
-        <v>25.66077853703594</v>
+        <v>23.07235479504654</v>
       </c>
       <c r="D43">
-        <v>22.9275123124137</v>
+        <v>24.5287094131955</v>
       </c>
       <c r="E43">
-        <v>21.52854253373332</v>
+        <v>22.93887559076405</v>
       </c>
       <c r="F43">
-        <v>21.77794091487834</v>
+        <v>22.78331998095216</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>21.62009844617586</v>
+        <v>23.70793739744333</v>
       </c>
       <c r="C44">
-        <v>25.80705791113476</v>
+        <v>23.30316879529051</v>
       </c>
       <c r="D44">
-        <v>23.10094678377001</v>
+        <v>24.75134022263202</v>
       </c>
       <c r="E44">
-        <v>21.64321920768828</v>
+        <v>23.17365154057648</v>
       </c>
       <c r="F44">
-        <v>21.88379500512067</v>
+        <v>23.02124812676246</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>21.73785846381842</v>
+        <v>23.94224522624446</v>
       </c>
       <c r="C45">
-        <v>25.9514778445098</v>
+        <v>23.54048987116982</v>
       </c>
       <c r="D45">
-        <v>23.27728524993072</v>
+        <v>24.97860908978204</v>
       </c>
       <c r="E45">
-        <v>21.76022211731434</v>
+        <v>23.41547607727797</v>
       </c>
       <c r="F45">
-        <v>21.99166232638809</v>
+        <v>23.2665012465686</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>21.85822357402369</v>
+        <v>24.18272334742284</v>
       </c>
       <c r="C46">
-        <v>26.09388983727269</v>
+        <v>23.78428068994535</v>
       </c>
       <c r="D46">
-        <v>23.45629883990909</v>
+        <v>25.21049259228312</v>
       </c>
       <c r="E46">
-        <v>21.87944384753073</v>
+        <v>23.66430944413547</v>
       </c>
       <c r="F46">
-        <v>22.10147722759018</v>
+        <v>23.51905263791851</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>21.98110449671418</v>
+        <v>24.42934900214975</v>
       </c>
       <c r="C47">
-        <v>26.23414478998782</v>
+        <v>24.03450143680579</v>
       </c>
       <c r="D47">
-        <v>23.63773030024094</v>
+        <v>25.44696720126801</v>
       </c>
       <c r="E47">
-        <v>22.00076820617623</v>
+        <v>23.92010638775438</v>
       </c>
       <c r="F47">
-        <v>22.21316731031698</v>
+        <v>23.77887399675222</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>22.10640211550973</v>
+        <v>24.68209761430348</v>
       </c>
       <c r="C48">
-        <v>26.37209297782518</v>
+        <v>24.29110924092316</v>
       </c>
       <c r="D48">
-        <v>23.82128985521027</v>
+        <v>25.68800918913057</v>
       </c>
       <c r="E48">
-        <v>22.12406888585368</v>
+        <v>24.18281538413834</v>
       </c>
       <c r="F48">
-        <v>22.32665165244721</v>
+        <v>24.04593510193463</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>22.23400476496242</v>
+        <v>24.94094240154777</v>
       </c>
       <c r="C49">
-        <v>26.50758407472837</v>
+        <v>24.55405748440943</v>
       </c>
       <c r="D49">
-        <v>24.0066512146648</v>
+        <v>25.93359451837587</v>
       </c>
       <c r="E49">
-        <v>22.24920796944467</v>
+        <v>24.45237714001947</v>
       </c>
       <c r="F49">
-        <v>22.44183920638775</v>
+        <v>24.32020337460715</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>22.36378751226206</v>
+        <v>25.20585394589463</v>
       </c>
       <c r="C50">
-        <v>26.64046711722055</v>
+        <v>24.82329496172108</v>
       </c>
       <c r="D50">
-        <v>24.19344479255189</v>
+        <v>26.18369869697742</v>
       </c>
       <c r="E50">
-        <v>22.37603429232596</v>
+        <v>24.72872297130754</v>
       </c>
       <c r="F50">
-        <v>22.55862688353379</v>
+        <v>24.60164336071962</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>22.49560836046031</v>
+        <v>25.47679964645872</v>
       </c>
       <c r="C51">
-        <v>26.77059053454686</v>
+        <v>25.09876487995245</v>
       </c>
       <c r="D51">
-        <v>24.38125222025028</v>
+        <v>26.43829657974988</v>
       </c>
       <c r="E51">
-        <v>22.5043812616895</v>
+        <v>25.0117734759995</v>
       </c>
       <c r="F51">
-        <v>22.67689678522487</v>
+        <v>24.89021606940184</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>22.62930610916196</v>
+        <v>25.75374294330393</v>
       </c>
       <c r="C52">
-        <v>26.89780205481293</v>
+        <v>25.38040362131564</v>
       </c>
       <c r="D52">
-        <v>24.56959979429486</v>
+        <v>26.69736209461814</v>
       </c>
       <c r="E52">
-        <v>22.63406437704547</v>
+        <v>25.30143568879591</v>
       </c>
       <c r="F52">
-        <v>22.7965131570737</v>
+        <v>25.18587823574328</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>22.78717718772692</v>
+        <v>26.0366424049875</v>
       </c>
       <c r="C53">
-        <v>27.03280414256804</v>
+        <v>25.66813923085892</v>
       </c>
       <c r="D53">
-        <v>24.78764724087762</v>
+        <v>26.96086786691627</v>
       </c>
       <c r="E53">
-        <v>22.79105423148745</v>
+        <v>25.59760077451947</v>
       </c>
       <c r="F53">
-        <v>22.94334659146853</v>
+        <v>25.48858123120528</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>22.9909097811288</v>
+        <v>26.3254508145651</v>
       </c>
       <c r="C54">
-        <v>27.18551018833698</v>
+        <v>25.96188957759112</v>
       </c>
       <c r="D54">
-        <v>25.06286449124513</v>
+        <v>27.22878469272139</v>
       </c>
       <c r="E54">
-        <v>23.0004641518083</v>
+        <v>25.90014021828324</v>
       </c>
       <c r="F54">
-        <v>23.14259796936321</v>
+        <v>25.7982697647585</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>23.23932395600756</v>
+        <v>26.62011346574914</v>
       </c>
       <c r="C55">
-        <v>27.35457326447776</v>
+        <v>26.26156010572209</v>
       </c>
       <c r="D55">
-        <v>25.39191888371002</v>
+        <v>27.50108078728998</v>
       </c>
       <c r="E55">
-        <v>23.26072660833821</v>
+        <v>26.20890172499421</v>
       </c>
       <c r="F55">
-        <v>23.39303525586353</v>
+        <v>26.11488014701656</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>23.5310982326208</v>
+        <v>26.9205662980587</v>
       </c>
       <c r="C56">
-        <v>27.5386515740968</v>
+        <v>26.56704105047316</v>
       </c>
       <c r="D56">
-        <v>25.77105253754149</v>
+        <v>27.77772071002451</v>
       </c>
       <c r="E56">
-        <v>23.5701298005087</v>
+        <v>26.52370445866876</v>
       </c>
       <c r="F56">
-        <v>23.69327907802431</v>
+        <v>26.43833834258667</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>23.86473506196968</v>
+        <v>27.22673391253116</v>
       </c>
       <c r="C57">
-        <v>27.73640478086874</v>
+        <v>26.87820400369423</v>
       </c>
       <c r="D57">
-        <v>26.1960185203677</v>
+        <v>28.05866377999403</v>
       </c>
       <c r="E57">
-        <v>23.92677336510872</v>
+        <v>26.84433282416822</v>
       </c>
       <c r="F57">
-        <v>24.04174270649944</v>
+        <v>26.76855691924651</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>24.23852130137938</v>
+        <v>27.53852617768558</v>
       </c>
       <c r="C58">
-        <v>27.94649332174817</v>
+        <v>27.19489769587136</v>
       </c>
       <c r="D58">
-        <v>26.66201878781354</v>
+        <v>28.34386164429317</v>
       </c>
       <c r="E58">
-        <v>24.3285201538835</v>
+        <v>27.17052884229946</v>
       </c>
       <c r="F58">
-        <v>24.43656254661827</v>
+        <v>27.10543134607914</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>24.65048510510103</v>
+        <v>27.85583421114089</v>
       </c>
       <c r="C59">
-        <v>28.16757756717304</v>
+        <v>27.51694284496089</v>
       </c>
       <c r="D59">
-        <v>27.16365227924107</v>
+        <v>28.63325489363333</v>
       </c>
       <c r="E59">
-        <v>24.77294077392704</v>
+        <v>27.5019829443611</v>
       </c>
       <c r="F59">
-        <v>24.87551800802891</v>
+        <v>27.44883482350917</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>25.09834402784614</v>
+        <v>28.17852463866478</v>
       </c>
       <c r="C60">
-        <v>28.39831708256865</v>
+        <v>27.84412561899071</v>
       </c>
       <c r="D60">
-        <v>27.69487343910112</v>
+        <v>28.92676774030485</v>
       </c>
       <c r="E60">
-        <v>25.25724697502851</v>
+        <v>27.83832290946768</v>
       </c>
       <c r="F60">
-        <v>25.35593840279459</v>
+        <v>27.79861322733919</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>25.57944943695855</v>
+        <v>28.50643263168718</v>
       </c>
       <c r="C61">
-        <v>28.6373699493512</v>
+        <v>28.17618970780993</v>
       </c>
       <c r="D61">
-        <v>28.24897136888656</v>
+        <v>29.22430025325439</v>
       </c>
       <c r="E61">
-        <v>25.77821679109688</v>
+        <v>28.179100611663</v>
       </c>
       <c r="F61">
-        <v>25.874597067642</v>
+        <v>28.15457367495961</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>26.09072665926582</v>
+        <v>28.83935251424073</v>
       </c>
       <c r="C62">
-        <v>28.88339217995458</v>
+        <v>28.51282649785923</v>
       </c>
       <c r="D62">
-        <v>28.81858556886349</v>
+        <v>29.52571695497199</v>
       </c>
       <c r="E62">
-        <v>26.33210614711511</v>
+        <v>28.52377652469134</v>
       </c>
       <c r="F62">
-        <v>26.42759870250245</v>
+        <v>28.51647367999492</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>26.6286105566159</v>
+        <v>29.17702549078083</v>
       </c>
       <c r="C63">
-        <v>29.1350372603906</v>
+        <v>28.85366298256438</v>
       </c>
       <c r="D63">
-        <v>29.39576091271767</v>
+        <v>29.83083030530656</v>
       </c>
       <c r="E63">
-        <v>26.91454949479899</v>
+        <v>28.87170157927016</v>
       </c>
       <c r="F63">
-        <v>27.01025842660382</v>
+        <v>28.88400534122808</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>27.18898246564657</v>
+        <v>29.51912082257977</v>
       </c>
       <c r="C64">
-        <v>29.39095591525803</v>
+        <v>29.19824695357778</v>
       </c>
       <c r="D64">
-        <v>29.97206169905365</v>
+        <v>30.13937757888854</v>
       </c>
       <c r="E64">
-        <v>27.52045440723518</v>
+        <v>29.2220963926902</v>
       </c>
       <c r="F64">
-        <v>27.61700252342679</v>
+        <v>29.2567737326312</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>27.76711416005408</v>
+        <v>29.86521348752463</v>
       </c>
       <c r="C65">
-        <v>29.6497960733837</v>
+        <v>29.54602967858813</v>
       </c>
       <c r="D65">
-        <v>30.5387527792873</v>
+        <v>30.45098931484509</v>
       </c>
       <c r="E65">
-        <v>28.14389934262038</v>
+        <v>29.57402863184832</v>
       </c>
       <c r="F65">
-        <v>28.24129723508381</v>
+        <v>29.63426558542455</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>28.35762731054103</v>
+        <v>30.21475347400023</v>
       </c>
       <c r="C66">
-        <v>29.91020314620771</v>
+        <v>29.89634242524714</v>
       </c>
       <c r="D66">
-        <v>31.08705334554235</v>
+        <v>30.7651476303332</v>
       </c>
       <c r="E66">
-        <v>28.77805381223612</v>
+        <v>29.92638908404371</v>
       </c>
       <c r="F66">
-        <v>28.87564012454176</v>
+        <v>30.0158106401851</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>28.95448089891714</v>
+        <v>30.5670248615204</v>
       </c>
       <c r="C67">
-        <v>30.17082069488828</v>
+        <v>30.24837146273815</v>
       </c>
       <c r="D67">
-        <v>31.60845957915812</v>
+        <v>31.08113280090037</v>
       </c>
       <c r="E67">
-        <v>29.4151506391433</v>
+        <v>30.27786788136029</v>
       </c>
       <c r="F67">
-        <v>29.51164222173756</v>
+        <v>30.40052926206486</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>29.55100270975067</v>
+        <v>30.9210925975182</v>
       </c>
       <c r="C68">
-        <v>30.43029160069971</v>
+        <v>30.60112839306733</v>
       </c>
       <c r="D68">
-        <v>32.09511797531777</v>
+        <v>31.39795703839878</v>
       </c>
       <c r="E68">
-        <v>30.0465504812443</v>
+        <v>30.62693321907964</v>
       </c>
       <c r="F68">
-        <v>30.14022657087395</v>
+        <v>30.78726432789931</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>30.13998072654828</v>
+        <v>31.27573575992202</v>
       </c>
       <c r="C69">
-        <v>30.68725986146978</v>
+        <v>30.95341535428634</v>
       </c>
       <c r="D69">
-        <v>32.54021650386183</v>
+        <v>31.71428589798612</v>
       </c>
       <c r="E69">
-        <v>30.66294347776257</v>
+        <v>30.97181618516089</v>
       </c>
       <c r="F69">
-        <v>30.75195664730454</v>
+        <v>31.17449723632367</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>30.71383004812366</v>
+        <v>31.62936788023654</v>
       </c>
       <c r="C70">
-        <v>30.94037319228118</v>
+        <v>31.30378709445885</v>
       </c>
       <c r="D70">
-        <v>32.93834726092746</v>
+        <v>32.02835071398363</v>
       </c>
       <c r="E70">
-        <v>31.25472119281021</v>
+        <v>31.310505385282</v>
       </c>
       <c r="F70">
-        <v>31.33748350699169</v>
+        <v>31.56024931993584</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>31.26484571172909</v>
+        <v>31.97994642883848</v>
       </c>
       <c r="C71">
-        <v>31.18828666928585</v>
+        <v>31.65051247495905</v>
       </c>
       <c r="D71">
-        <v>33.28578836750321</v>
+        <v>32.33786079865479</v>
       </c>
       <c r="E71">
-        <v>31.81251744116339</v>
+        <v>31.64075644863716</v>
       </c>
       <c r="F71">
-        <v>31.8880718331733</v>
+        <v>31.94197532056787</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>31.78553514170393</v>
+        <v>32.32488272741806</v>
       </c>
       <c r="C72">
-        <v>31.42966770126615</v>
+        <v>31.99153859144052</v>
       </c>
       <c r="D72">
-        <v>33.58065853314725</v>
+        <v>32.63993191641213</v>
       </c>
       <c r="E72">
-        <v>32.32786271915247</v>
+        <v>31.96012054911488</v>
       </c>
       <c r="F72">
-        <v>32.39613710631441</v>
+        <v>32.31646569232069</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>32.2690101393066</v>
+        <v>32.66097168749619</v>
       </c>
       <c r="C73">
-        <v>31.66320265760662</v>
+        <v>32.32446375855949</v>
       </c>
       <c r="D73">
-        <v>33.82291545103153</v>
+        <v>32.93105717043264</v>
       </c>
       <c r="E73">
-        <v>32.79384058568196</v>
+        <v>32.26599812724201</v>
       </c>
       <c r="F73">
-        <v>32.85571136446116</v>
+        <v>32.67978600873709</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>32.70939545326252</v>
+        <v>32.98437022578958</v>
       </c>
       <c r="C74">
-        <v>31.88760552576875</v>
+        <v>32.64652736286255</v>
       </c>
       <c r="D74">
-        <v>34.01419684038773</v>
+        <v>33.20715447923369</v>
       </c>
       <c r="E74">
-        <v>33.20560877304374</v>
+        <v>32.55571847211333</v>
       </c>
       <c r="F74">
-        <v>33.26276038520341</v>
+        <v>33.02728994200458</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>33.10219532186996</v>
+        <v>33.2906621246342</v>
       </c>
       <c r="C75">
-        <v>32.10162862900079</v>
+        <v>32.95463327385842</v>
       </c>
       <c r="D75">
-        <v>34.15753134696511</v>
+        <v>33.46372651793916</v>
       </c>
       <c r="E75">
-        <v>33.56067038616823</v>
+        <v>32.82664479773446</v>
       </c>
       <c r="F75">
-        <v>33.6153037461328</v>
+        <v>33.35376298760605</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>33.44455939991528</v>
+        <v>33.57504721050373</v>
       </c>
       <c r="C76">
-        <v>32.30407755366091</v>
+        <v>33.24541294267004</v>
       </c>
       <c r="D76">
-        <v>34.25696770399176</v>
+        <v>33.69615487164723</v>
       </c>
       <c r="E76">
-        <v>33.8588445652667</v>
+        <v>33.07629772701803</v>
       </c>
       <c r="F76">
-        <v>33.91332903357375</v>
+        <v>33.65371738471129</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>33.73539151156386</v>
+        <v>33.8326731261573</v>
       </c>
       <c r="C77">
-        <v>32.49382784231384</v>
+        <v>33.51534245439922</v>
       </c>
       <c r="D77">
-        <v>34.31717886110054</v>
+        <v>33.90011660807422</v>
       </c>
       <c r="E77">
-        <v>34.10198278255544</v>
+        <v>33.30248814125574</v>
       </c>
       <c r="F77">
-        <v>34.15853369616867</v>
+        <v>33.92185195578462</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>33.97529483215904</v>
+        <v>34.05908893043352</v>
       </c>
       <c r="C78">
-        <v>32.6698452554199</v>
+        <v>33.76092367953464</v>
       </c>
       <c r="D78">
-        <v>34.34309244183269</v>
+        <v>34.07206249195534</v>
       </c>
       <c r="E78">
-        <v>34.29350407066156</v>
+        <v>33.5034438061533</v>
       </c>
       <c r="F78">
-        <v>34.35395496139833</v>
+        <v>34.15362053154202</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>34.16636041120724</v>
+        <v>34.25074706411781</v>
       </c>
       <c r="C79">
-        <v>32.83120954660338</v>
+        <v>33.97891729062967</v>
       </c>
       <c r="D79">
-        <v>34.33958379857139</v>
+        <v>34.20965222496736</v>
       </c>
       <c r="E79">
-        <v>34.4378707871015</v>
+        <v>33.67791430009704</v>
       </c>
       <c r="F79">
-        <v>34.50355639567212</v>
+        <v>34.34578939394431</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>34.31184309164514</v>
+        <v>34.40543840635741</v>
       </c>
       <c r="C80">
-        <v>32.97714027541549</v>
+        <v>34.16660767684276</v>
       </c>
       <c r="D80">
-        <v>34.31124934810924</v>
+        <v>34.31203190934303</v>
       </c>
       <c r="E80">
-        <v>34.54009192428383</v>
+        <v>33.8252347022471</v>
       </c>
       <c r="F80">
-        <v>34.61183099475076</v>
+        <v>34.49684087545727</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>34.41578846547637</v>
+        <v>34.52254252694089</v>
       </c>
       <c r="C81">
-        <v>33.10702313835755</v>
+        <v>34.32205909276467</v>
       </c>
       <c r="D81">
-        <v>34.26226146683786</v>
+        <v>34.37987715556029</v>
       </c>
       <c r="E81">
-        <v>34.60531412509246</v>
+        <v>33.94534803893164</v>
       </c>
       <c r="F81">
-        <v>34.68346167723278</v>
+        <v>34.60710719762825</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>34.48266539618038</v>
+        <v>34.6030268281383</v>
       </c>
       <c r="C82">
-        <v>33.22043430809634</v>
+        <v>34.44431358141603</v>
       </c>
       <c r="D82">
-        <v>34.19629464108382</v>
+        <v>34.41520048920597</v>
       </c>
       <c r="E82">
-        <v>34.63852181993861</v>
+        <v>34.03877990633823</v>
       </c>
       <c r="F82">
-        <v>34.72305877793952</v>
+        <v>34.67860573575913</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>34.51704840008083</v>
+        <v>34.64920791331395</v>
       </c>
       <c r="C83">
-        <v>33.31716001457347</v>
+        <v>34.53348617217137</v>
       </c>
       <c r="D83">
-        <v>34.11650693754166</v>
+        <v>34.42099298978326</v>
       </c>
       <c r="E83">
-        <v>34.64434373791689</v>
+        <v>34.10656853747345</v>
       </c>
       <c r="F83">
-        <v>34.73497736606799</v>
+        <v>34.71464273729778</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>34.5233725301878</v>
+        <v>34.66435826818024</v>
       </c>
       <c r="C84">
-        <v>33.39720764650325</v>
+        <v>34.59073333499546</v>
       </c>
       <c r="D84">
-        <v>34.0255597676945</v>
+        <v>34.40080479798793</v>
       </c>
       <c r="E84">
-        <v>34.62694747137044</v>
+        <v>34.15016699562848</v>
       </c>
       <c r="F84">
-        <v>34.72320543255382</v>
+        <v>34.7193104202706</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>34.50576614129891</v>
+        <v>34.65226823555618</v>
       </c>
       <c r="C85">
-        <v>33.46080604377396</v>
+        <v>34.6181039070382</v>
       </c>
       <c r="D85">
-        <v>33.92566095529106</v>
+        <v>34.3583588201214</v>
       </c>
       <c r="E85">
-        <v>34.58999994812655</v>
+        <v>34.17132987709237</v>
       </c>
       <c r="F85">
-        <v>34.69130875987692</v>
+        <v>34.69700159195116</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>34.46779285755599</v>
+        <v>34.61685578308099</v>
       </c>
       <c r="C86">
-        <v>33.50769121218831</v>
+        <v>34.61830396622485</v>
       </c>
       <c r="D86">
-        <v>33.81860334477022</v>
+        <v>34.29725441097661</v>
       </c>
       <c r="E86">
-        <v>34.53655838612183</v>
+        <v>34.17199818574587</v>
       </c>
       <c r="F86">
-        <v>34.64228481354994</v>
+        <v>34.65202423911073</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>34.41267517653722</v>
+        <v>34.56187544691676</v>
       </c>
       <c r="C87">
-        <v>33.5380238927146</v>
+        <v>34.59442847301712</v>
       </c>
       <c r="D87">
-        <v>33.70585013554704</v>
+        <v>34.22077735465699</v>
       </c>
       <c r="E87">
-        <v>34.46928273288542</v>
+        <v>34.1541946364153</v>
       </c>
       <c r="F87">
-        <v>34.57878634901291</v>
+        <v>34.5883459570877</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>34.34336028612045</v>
+        <v>34.49073670571079</v>
       </c>
       <c r="C88">
-        <v>33.55289274120769</v>
+        <v>34.54970526690465</v>
       </c>
       <c r="D88">
-        <v>33.58859555515314</v>
+        <v>34.13180433171567</v>
       </c>
       <c r="E88">
-        <v>34.39054092421088</v>
+        <v>34.11993600933259</v>
       </c>
       <c r="F88">
-        <v>34.50322461769131</v>
+        <v>34.50945881258299</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>34.26233231292016</v>
+        <v>34.40641670085584</v>
       </c>
       <c r="C89">
-        <v>33.55343857392924</v>
+        <v>34.48728560872568</v>
       </c>
       <c r="D89">
-        <v>33.46779169179104</v>
+        <v>34.03277748055162</v>
       </c>
       <c r="E89">
-        <v>34.30230509901203</v>
+        <v>34.07116561932499</v>
       </c>
       <c r="F89">
-        <v>34.41762319020454</v>
+        <v>34.41833595972415</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>34.17166282314044</v>
+        <v>34.31144136289412</v>
       </c>
       <c r="C90">
-        <v>33.54082154519475</v>
+        <v>34.41009635971519</v>
       </c>
       <c r="D90">
-        <v>33.34419453249773</v>
+        <v>33.9257235743172</v>
       </c>
       <c r="E90">
-        <v>34.20620802071583</v>
+        <v>34.00970641225256</v>
       </c>
       <c r="F90">
-        <v>34.32367886994163</v>
+        <v>34.31744790569572</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>34.07307267221197</v>
+        <v>34.20790912412326</v>
       </c>
       <c r="C91">
-        <v>33.51618898910938</v>
+        <v>34.32075233997648</v>
       </c>
       <c r="D91">
-        <v>33.21840461723534</v>
+        <v>33.81229706676895</v>
       </c>
       <c r="E91">
-        <v>34.10360350372238</v>
+        <v>33.93723191127754</v>
       </c>
       <c r="F91">
-        <v>34.22280199299849</v>
+        <v>34.20881146779413</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>33.96798034670267</v>
+        <v>34.09753698904602</v>
       </c>
       <c r="C92">
-        <v>33.48065079660076</v>
+        <v>34.22152043882584</v>
       </c>
       <c r="D92">
-        <v>33.0908979942926</v>
+        <v>33.69383246336535</v>
       </c>
       <c r="E92">
-        <v>33.99560920314298</v>
+        <v>33.85525196855298</v>
       </c>
       <c r="F92">
-        <v>34.11616763775994</v>
+        <v>34.09405231444217</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>33.8575514939305</v>
+        <v>33.98171467779699</v>
       </c>
       <c r="C93">
-        <v>33.43526093144342</v>
+        <v>34.11431969450637</v>
       </c>
       <c r="D93">
-        <v>32.96205121540059</v>
+        <v>33.57139708326267</v>
       </c>
       <c r="E93">
-        <v>33.88314636797633</v>
+        <v>33.76510989325944</v>
       </c>
       <c r="F93">
-        <v>34.00475276396867</v>
+        <v>33.97446914815834</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>33.74274616549335</v>
+        <v>33.86155860297579</v>
       </c>
       <c r="C94">
-        <v>33.38100393315624</v>
+        <v>34.00074482500536</v>
       </c>
       <c r="D94">
-        <v>32.83216061244415</v>
+        <v>33.44583992227346</v>
       </c>
       <c r="E94">
-        <v>33.76698066396023</v>
+        <v>33.6679873856176</v>
       </c>
       <c r="F94">
-        <v>33.88936623090271</v>
+        <v>33.85109342948907</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>33.62434879708594</v>
+        <v>33.73796141091984</v>
       </c>
       <c r="C95">
-        <v>33.3187888825737</v>
+        <v>33.88210237121146</v>
       </c>
       <c r="D95">
-        <v>32.70146178409553</v>
+        <v>33.31783390819098</v>
       </c>
       <c r="E95">
-        <v>33.64774219143735</v>
+        <v>33.56491458266037</v>
       </c>
       <c r="F95">
-        <v>33.77067892227248</v>
+        <v>33.72474117806352</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>33.50300270338722</v>
+        <v>33.6116349869362</v>
       </c>
       <c r="C96">
-        <v>33.24944697000041</v>
+        <v>33.75945099962894</v>
       </c>
       <c r="D96">
-        <v>32.57014251134563</v>
+        <v>33.18791104562459</v>
       </c>
       <c r="E96">
-        <v>33.52595286200378</v>
+        <v>33.45678307078229</v>
       </c>
       <c r="F96">
-        <v>33.64924904267543</v>
+        <v>33.59605666959134</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>33.37923509581584</v>
+        <v>33.48314596887317</v>
       </c>
       <c r="C97">
-        <v>33.17373190296476</v>
+        <v>33.63364150728019</v>
       </c>
       <c r="D97">
-        <v>32.43835134561289</v>
+        <v>33.0564917030783</v>
       </c>
       <c r="E97">
-        <v>33.40204524248688</v>
+        <v>33.34436008571663</v>
       </c>
       <c r="F97">
-        <v>33.52554043405247</v>
+        <v>33.46554792845478</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>33.25347765285019</v>
+        <v>33.35294518297718</v>
       </c>
       <c r="C98">
-        <v>33.09232278406654</v>
+        <v>33.50535346505142</v>
       </c>
       <c r="D98">
-        <v>32.30620580533989</v>
+        <v>32.92390796318935</v>
       </c>
       <c r="E98">
-        <v>33.27637776869001</v>
+        <v>33.22830283315498</v>
       </c>
       <c r="F98">
-        <v>33.39993760474829</v>
+        <v>33.33361552326358</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>33.12608444336927</v>
+        <v>33.22139160802522</v>
       </c>
       <c r="C99">
-        <v>33.00582902993292</v>
+        <v>33.37512730764485</v>
       </c>
       <c r="D99">
-        <v>32.17379933318418</v>
+        <v>32.79042232167953</v>
       </c>
       <c r="E99">
-        <v>33.14924820448106</v>
+        <v>33.10917241905951</v>
       </c>
       <c r="F99">
-        <v>33.27276042815124</v>
+        <v>33.20057571406544</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>32.99735000101454</v>
+        <v>33.08877141043529</v>
       </c>
       <c r="C100">
-        <v>32.91479588799827</v>
+        <v>33.24339158091213</v>
       </c>
       <c r="D100">
-        <v>32.04120619843209</v>
+        <v>32.6562425797351</v>
       </c>
       <c r="E100">
-        <v>33.02090546136181</v>
+        <v>32.98744676225425</v>
       </c>
       <c r="F100">
-        <v>33.14427574230133</v>
+        <v>33.06667839561163</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>32.86751495841169</v>
+        <v>32.95531318337935</v>
       </c>
       <c r="C101">
-        <v>32.81970985936477</v>
+        <v>33.11048543392114</v>
       </c>
       <c r="D101">
-        <v>31.90848785886379</v>
+        <v>32.52153341333804</v>
       </c>
       <c r="E101">
-        <v>32.89155702749433</v>
+        <v>32.86353214775833</v>
       </c>
       <c r="F101">
-        <v>33.01470611077828</v>
+        <v>32.93212131921656</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>32.73677695378643</v>
+        <v>32.82119982174648</v>
       </c>
       <c r="C102">
-        <v>32.7210041615661</v>
+        <v>32.97667703095266</v>
       </c>
       <c r="D102">
-        <v>31.77569235340695</v>
+        <v>32.38642558113855</v>
       </c>
       <c r="E102">
-        <v>32.7613757613443</v>
+        <v>32.73777346110026</v>
       </c>
       <c r="F102">
-        <v>32.88423745359857</v>
+        <v>32.79706132286681</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>32.60529978641939</v>
+        <v>32.68657800702679</v>
       </c>
       <c r="C103">
-        <v>32.6190642073959</v>
+        <v>32.84217836439076</v>
       </c>
       <c r="D103">
-        <v>31.6428578280232</v>
+        <v>32.25102314417212</v>
       </c>
       <c r="E103">
-        <v>32.63050626738537</v>
+        <v>32.61046324172993</v>
       </c>
       <c r="F103">
-        <v>32.75302544965653</v>
+        <v>32.66162307168938</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>32.47322013414314</v>
+        <v>32.55156568918955</v>
       </c>
       <c r="C104">
-        <v>32.51423277542714</v>
+        <v>32.70715705099562</v>
       </c>
       <c r="D104">
-        <v>31.5100148084645</v>
+        <v>32.11540904922175</v>
       </c>
       <c r="E104">
-        <v>32.499069732393</v>
+        <v>32.48184956872701</v>
       </c>
       <c r="F104">
-        <v>32.62120070229793</v>
+        <v>32.52590584349275</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>32.34065161594655</v>
+        <v>32.41625795316537</v>
       </c>
       <c r="C105">
-        <v>32.40681470812167</v>
+        <v>32.57174572022898</v>
       </c>
       <c r="D105">
-        <v>31.37718817357119</v>
+        <v>31.97964957835581</v>
       </c>
       <c r="E105">
-        <v>32.36716944819295</v>
+        <v>32.35214282171491</v>
       </c>
       <c r="F105">
-        <v>32.48887296488967</v>
+        <v>32.38998888764083</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>32.20768856617345</v>
+        <v>32.28073165085206</v>
       </c>
       <c r="C106">
-        <v>32.29708113596975</v>
+        <v>32.43604937459976</v>
       </c>
       <c r="D106">
-        <v>31.24439772972704</v>
+        <v>31.84379782216152</v>
       </c>
       <c r="E106">
-        <v>32.23489195335482</v>
+        <v>32.22152144519434</v>
       </c>
       <c r="F106">
-        <v>32.35613456680289</v>
+        <v>32.25393564550243</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>32.07440964372758</v>
+        <v>32.145049095599</v>
       </c>
       <c r="C107">
-        <v>32.18527332221441</v>
+        <v>32.30015140955031</v>
       </c>
       <c r="D107">
-        <v>31.1116600950939</v>
+        <v>31.70789638259541</v>
       </c>
       <c r="E107">
-        <v>32.10230991138759</v>
+        <v>32.09013686296403</v>
       </c>
       <c r="F107">
-        <v>32.22306339765019</v>
+        <v>32.1177970030985</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>31.94088092382067</v>
+        <v>32.00926092994018</v>
       </c>
       <c r="C108">
-        <v>32.07160610426251</v>
+        <v>32.16411819690295</v>
       </c>
       <c r="D108">
-        <v>30.97898858359043</v>
+        <v>31.57197951706477</v>
       </c>
       <c r="E108">
-        <v>31.96948471064683</v>
+        <v>31.95811766003111</v>
       </c>
       <c r="F108">
-        <v>32.08972538456342</v>
+        <v>31.98161386916627</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>31.80715795838022</v>
+        <v>31.87340843159365</v>
       </c>
       <c r="C109">
-        <v>31.95627095994844</v>
+        <v>32.02800251184474</v>
       </c>
       <c r="D109">
-        <v>30.84639428675742</v>
+        <v>31.43607481904528</v>
       </c>
       <c r="E109">
-        <v>31.83646864727548</v>
+        <v>31.82557312190646</v>
       </c>
       <c r="F109">
-        <v>31.95617641019375</v>
+        <v>31.84541920793223</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>31.67328745947574</v>
+        <v>31.73752533608896</v>
       </c>
       <c r="C110">
-        <v>31.83943871088532</v>
+        <v>31.89184635936838</v>
       </c>
       <c r="D110">
-        <v>30.71388608789834</v>
+        <v>31.30020461546804</v>
       </c>
       <c r="E110">
-        <v>31.70330635010174</v>
+        <v>31.69259621946946</v>
       </c>
       <c r="F110">
-        <v>31.82246388574495</v>
+        <v>31.70923962470761</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>31.53930944150147</v>
+        <v>31.60163928589904</v>
       </c>
       <c r="C111">
-        <v>31.72126190930004</v>
+        <v>31.75568330848966</v>
       </c>
       <c r="D111">
-        <v>30.58147114331003</v>
+        <v>31.1643870355595</v>
       </c>
       <c r="E111">
-        <v>31.57003581000138</v>
+        <v>31.55926612408718</v>
       </c>
       <c r="F111">
-        <v>31.68862807334815</v>
+        <v>31.57309669783279</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>31.4052571654049</v>
+        <v>31.46577299030637</v>
       </c>
       <c r="C112">
-        <v>31.60187694908334</v>
+        <v>31.61954026974272</v>
       </c>
       <c r="D112">
-        <v>30.44915532560251</v>
+        <v>31.0286367972388</v>
       </c>
       <c r="E112">
-        <v>31.43668935221011</v>
+        <v>31.42565033555552</v>
       </c>
       <c r="F112">
-        <v>31.5547032301331</v>
+        <v>31.43700798590602</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>31.27115888637338</v>
+        <v>31.3299451318544</v>
       </c>
       <c r="C113">
-        <v>31.48140592664759</v>
+        <v>31.48343885770529</v>
       </c>
       <c r="D113">
-        <v>30.31694343167838</v>
+        <v>30.89296585044428</v>
       </c>
       <c r="E113">
-        <v>31.30329454977235</v>
+        <v>31.29180647366928</v>
       </c>
       <c r="F113">
-        <v>31.42071861637104</v>
+        <v>31.30098777441449</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>31.13703861612232</v>
+        <v>31.19417111301257</v>
       </c>
       <c r="C114">
-        <v>31.35995827602746</v>
+        <v>31.34739642987886</v>
       </c>
       <c r="D114">
-        <v>30.18483942506201</v>
+        <v>30.75738386293878</v>
       </c>
       <c r="E114">
-        <v>31.16987497754531</v>
+        <v>31.15778378244795</v>
       </c>
       <c r="F114">
-        <v>31.28669928559504</v>
+        <v>31.16504769291879</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>31.00291682019521</v>
+        <v>31.05846381355551</v>
       </c>
       <c r="C115">
-        <v>31.23763220607925</v>
+        <v>31.21142695953292</v>
       </c>
       <c r="D115">
-        <v>30.05284658438375</v>
+        <v>30.6218987286085</v>
       </c>
       <c r="E115">
-        <v>31.03645099179087</v>
+        <v>31.02362440307167</v>
       </c>
       <c r="F115">
-        <v>31.15266671689265</v>
+        <v>31.02919717066972</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>30.86881102413364</v>
+        <v>30.92283388480603</v>
       </c>
       <c r="C116">
-        <v>31.11451596406928</v>
+        <v>31.07554173072246</v>
       </c>
       <c r="D116">
-        <v>29.92096766919537</v>
+        <v>30.48651691828547</v>
       </c>
       <c r="E116">
-        <v>30.9030398750986</v>
+        <v>30.88936444537628</v>
       </c>
       <c r="F116">
-        <v>31.01863934299836</v>
+        <v>30.89344392877786</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>30.73473623178574</v>
+        <v>30.78729016357437</v>
       </c>
       <c r="C117">
-        <v>30.99068890660622</v>
+        <v>30.9397498736866</v>
       </c>
       <c r="D117">
-        <v>29.78920489504442</v>
+        <v>30.35124373594853</v>
       </c>
       <c r="E117">
-        <v>30.76965741309</v>
+        <v>30.75503489222221</v>
       </c>
       <c r="F117">
-        <v>30.88463300976287</v>
+        <v>30.75779431174217</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>30.60070541629857</v>
+        <v>30.65184000124572</v>
       </c>
       <c r="C118">
-        <v>30.86622256711486</v>
+        <v>30.80405876701367</v>
       </c>
       <c r="D118">
-        <v>29.65756010333457</v>
+        <v>30.21608352552234</v>
       </c>
       <c r="E118">
-        <v>30.63631650560897</v>
+        <v>30.62066234445081</v>
       </c>
       <c r="F118">
-        <v>30.75066136743639</v>
+        <v>30.62225353361928</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>30.46672964457371</v>
+        <v>30.51648952423763</v>
       </c>
       <c r="C119">
-        <v>30.74118150895457</v>
+        <v>30.66847439963471</v>
       </c>
       <c r="D119">
-        <v>29.5260348072812</v>
+        <v>30.08103984267288</v>
       </c>
       <c r="E119">
-        <v>30.5030284405004</v>
+        <v>30.48626969003003</v>
       </c>
       <c r="F119">
-        <v>30.61673619953152</v>
+        <v>30.48682587702676</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>30.33281844942619</v>
+        <v>30.38124385088557</v>
       </c>
       <c r="C120">
-        <v>30.61562402259716</v>
+        <v>30.53300162128888</v>
       </c>
       <c r="D120">
-        <v>29.39463024798649</v>
+        <v>29.94611559936974</v>
       </c>
       <c r="E120">
-        <v>30.36980275551466</v>
+        <v>30.35187660621743</v>
       </c>
       <c r="F120">
-        <v>30.48286770171255</v>
+        <v>30.35151485695431</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>30.19898006002241</v>
+        <v>30.24610728511304</v>
       </c>
       <c r="C121">
-        <v>30.48960289252964</v>
+        <v>30.39764443004731</v>
       </c>
       <c r="D121">
-        <v>29.26334745102868</v>
+        <v>29.81131316229796</v>
       </c>
       <c r="E121">
-        <v>30.23664779986275</v>
+        <v>30.21750018941525</v>
       </c>
       <c r="F121">
-        <v>30.3490647067676</v>
+        <v>30.21632334146331</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>30.06522161168236</v>
+        <v>30.11108344335954</v>
       </c>
       <c r="C122">
-        <v>30.36316589378572</v>
+        <v>30.26240609713155</v>
       </c>
       <c r="D122">
-        <v>29.13218727948473</v>
+        <v>29.6766345179944</v>
       </c>
       <c r="E122">
-        <v>30.10357086861185</v>
+        <v>30.08315517006276</v>
       </c>
       <c r="F122">
-        <v>30.21533485661769</v>
+        <v>30.08125372157184</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>29.93154928813795</v>
+        <v>29.97617536919294</v>
       </c>
       <c r="C123">
-        <v>30.23635629181765</v>
+        <v>30.12728924615428</v>
       </c>
       <c r="D123">
-        <v>29.00115043782921</v>
+        <v>29.54208120262322</v>
       </c>
       <c r="E123">
-        <v>29.97057822472376</v>
+        <v>29.94885425012994</v>
       </c>
       <c r="F123">
-        <v>30.08168479915599</v>
+        <v>29.94630791594911</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>29.79796845842237</v>
+        <v>29.84138562364745</v>
       </c>
       <c r="C124">
-        <v>30.1092133725352</v>
+        <v>29.99229602063262</v>
       </c>
       <c r="D124">
-        <v>28.87023750350958</v>
+        <v>29.40765465302643</v>
       </c>
       <c r="E124">
-        <v>29.83767549886283</v>
+        <v>29.81460846111931</v>
       </c>
       <c r="F124">
-        <v>29.94812028863071</v>
+        <v>29.81148760064157</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>29.66448380865756</v>
+        <v>29.70671634624944</v>
       </c>
       <c r="C125">
-        <v>29.98177287080687</v>
+        <v>29.85742816392953</v>
       </c>
       <c r="D125">
-        <v>28.73944895480313</v>
+        <v>29.27335585843601</v>
       </c>
       <c r="E125">
-        <v>29.70486761089893</v>
+        <v>29.68042732501469</v>
       </c>
       <c r="F125">
-        <v>29.81464643307904</v>
+        <v>29.67679407575406</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>29.53109941025781</v>
+        <v>29.57216933177471</v>
       </c>
       <c r="C126">
-        <v>29.85406731105407</v>
+        <v>29.72268708369921</v>
       </c>
       <c r="D126">
-        <v>28.60878517187844</v>
+        <v>29.13918583360065</v>
       </c>
       <c r="E126">
-        <v>29.57215866972806</v>
+        <v>29.54631910386633</v>
       </c>
       <c r="F126">
-        <v>29.6812675747565</v>
+        <v>29.5422284747661</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>29.39781881097568</v>
+        <v>29.43774611582727</v>
       </c>
       <c r="C127">
-        <v>29.72612632666408</v>
+        <v>29.58807392992801</v>
       </c>
       <c r="D127">
-        <v>28.47824645877025</v>
+        <v>29.00514522359738</v>
       </c>
       <c r="E127">
-        <v>29.43955283177964</v>
+        <v>29.41229097577986</v>
       </c>
       <c r="F127">
-        <v>29.54798765917698</v>
+        <v>29.40779168625567</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>29.26464511102921</v>
+        <v>29.30344795829993</v>
       </c>
       <c r="C128">
-        <v>29.59797695691173</v>
+        <v>29.45358964834201</v>
       </c>
       <c r="D128">
-        <v>28.34783307090725</v>
+        <v>28.87123467275187</v>
       </c>
       <c r="E128">
-        <v>29.3070529683741</v>
+        <v>29.27834922025002</v>
       </c>
       <c r="F128">
-        <v>29.41480999757071</v>
+        <v>29.27348442913635</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>29.1315810295215</v>
+        <v>29.1692759916842</v>
       </c>
       <c r="C129">
-        <v>29.4696439111235</v>
+        <v>29.31923500580405</v>
       </c>
       <c r="D129">
-        <v>28.21754519105906</v>
+        <v>28.73745460783248</v>
       </c>
       <c r="E129">
-        <v>29.17466237187352</v>
+        <v>29.14449928816325</v>
       </c>
       <c r="F129">
-        <v>29.28173757395811</v>
+        <v>29.13930730073032</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>28.99862894285867</v>
+        <v>29.03523109389247</v>
       </c>
       <c r="C130">
-        <v>29.34114975948692</v>
+        <v>29.1850106145092</v>
       </c>
       <c r="D130">
-        <v>28.08738298526402</v>
+        <v>28.60380540540291</v>
       </c>
       <c r="E130">
-        <v>29.04238324411765</v>
+        <v>29.01074592846462</v>
       </c>
       <c r="F130">
-        <v>29.14877294212407</v>
+        <v>29.0052607653711</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>28.8657909200415</v>
+        <v>28.90131408800201</v>
       </c>
       <c r="C131">
-        <v>29.21251516484243</v>
+        <v>29.05091696566287</v>
       </c>
       <c r="D131">
-        <v>27.95734657717908</v>
+        <v>28.47028734435558</v>
       </c>
       <c r="E131">
-        <v>28.9102179047042</v>
+        <v>28.87709329569395</v>
       </c>
       <c r="F131">
-        <v>29.01591836120486</v>
+        <v>28.87134520617376</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>28.73306881913341</v>
+        <v>28.76752558304491</v>
       </c>
       <c r="C132">
-        <v>29.08375907186174</v>
+        <v>28.91695444825782</v>
       </c>
       <c r="D132">
-        <v>27.82743604134819</v>
+        <v>28.33690064800653</v>
       </c>
       <c r="E132">
-        <v>28.77816818321815</v>
+        <v>28.74354500350422</v>
       </c>
       <c r="F132">
-        <v>28.88317581771922</v>
+        <v>28.73756092485029</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>28.60046420845392</v>
+        <v>28.63386614440962</v>
       </c>
       <c r="C133">
-        <v>28.95489885952173</v>
+        <v>28.78312336503418</v>
       </c>
       <c r="D133">
-        <v>27.69765146659346</v>
+        <v>28.20364548571451</v>
       </c>
       <c r="E133">
-        <v>28.64623571882468</v>
+        <v>28.61010420975858</v>
       </c>
       <c r="F133">
-        <v>28.75054704476493</v>
+        <v>28.60390816214743</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>28.46797857207805</v>
+        <v>28.50033619669598</v>
       </c>
       <c r="C134">
-        <v>28.82595048433246</v>
+        <v>28.64942394322856</v>
       </c>
       <c r="D134">
-        <v>27.56799286740383</v>
+        <v>28.07052199017363</v>
       </c>
       <c r="E134">
-        <v>28.51442196027597</v>
+        <v>28.4767736568109</v>
       </c>
       <c r="F134">
-        <v>28.61803359466184</v>
+        <v>28.4703871060783</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>28.335613101409</v>
+        <v>28.36693611245511</v>
       </c>
       <c r="C135">
-        <v>28.69692861380634</v>
+        <v>28.51585637236354</v>
       </c>
       <c r="D135">
-        <v>27.43846028380502</v>
+        <v>27.93753024829397</v>
       </c>
       <c r="E135">
-        <v>28.38272820320066</v>
+        <v>28.34355577730452</v>
       </c>
       <c r="F135">
-        <v>28.48563680851414</v>
+        <v>28.33699788838924</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>28.20336896424148</v>
+        <v>28.2336661864398</v>
       </c>
       <c r="C136">
-        <v>28.56784675424578</v>
+        <v>28.38242076062616</v>
       </c>
       <c r="D136">
-        <v>27.30905370702028</v>
+        <v>27.804670321827</v>
       </c>
       <c r="E136">
-        <v>28.25115557784924</v>
+        <v>28.21045266453276</v>
       </c>
       <c r="F136">
-        <v>28.3533578894462</v>
+        <v>28.20374061137171</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>28.07124708437952</v>
+        <v>28.10052666390823</v>
       </c>
       <c r="C137">
-        <v>28.43871733308538</v>
+        <v>28.24911722544272</v>
       </c>
       <c r="D137">
-        <v>27.17977312914348</v>
+        <v>27.6719422363013</v>
       </c>
       <c r="E137">
-        <v>28.11970510244272</v>
+        <v>28.0774661879881</v>
       </c>
       <c r="F137">
-        <v>28.22119787886509</v>
+        <v>28.0706153328901</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>27.93924834836356</v>
+        <v>27.9675177413392</v>
       </c>
       <c r="C138">
-        <v>28.30955178880237</v>
+        <v>28.11594580655973</v>
       </c>
       <c r="D138">
-        <v>27.05061852579539</v>
+        <v>27.53934599651652</v>
       </c>
       <c r="E138">
-        <v>27.98837770674141</v>
+        <v>27.9445979959937</v>
       </c>
       <c r="F138">
-        <v>28.08915769916212</v>
+        <v>27.93762208699991</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>27.80737348500033</v>
+        <v>27.83463957838887</v>
       </c>
       <c r="C139">
-        <v>28.18036073255794</v>
+        <v>27.98290654701248</v>
       </c>
       <c r="D139">
-        <v>26.92158986198617</v>
+        <v>27.4068815837083</v>
       </c>
       <c r="E139">
-        <v>27.85717413889833</v>
+        <v>27.81184948528503</v>
       </c>
       <c r="F139">
-        <v>27.95723815996839</v>
+        <v>27.80476088208544</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>27.67562316046714</v>
+        <v>27.70189229446276</v>
       </c>
       <c r="C140">
-        <v>28.05115387010157</v>
+        <v>27.84999945111209</v>
       </c>
       <c r="D140">
-        <v>26.79268709662188</v>
+        <v>27.27454896361012</v>
       </c>
       <c r="E140">
-        <v>27.72609513730156</v>
+        <v>27.67922195982252</v>
       </c>
       <c r="F140">
-        <v>27.82543996942562</v>
+        <v>27.67203170687909</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>27.54399794729066</v>
+        <v>27.56927598322571</v>
       </c>
       <c r="C141">
-        <v>27.92194033530795</v>
+        <v>27.71722449902261</v>
       </c>
       <c r="D141">
-        <v>26.66391017971977</v>
+        <v>27.14234808796866</v>
       </c>
       <c r="E141">
-        <v>27.59514127029306</v>
+        <v>27.54671646246338</v>
       </c>
       <c r="F141">
-        <v>27.69376375540712</v>
+        <v>27.53943453509599</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>27.4124983573176</v>
+        <v>27.43679070458327</v>
       </c>
       <c r="C142">
-        <v>27.79272839591644</v>
+        <v>27.58458166186309</v>
       </c>
       <c r="D142">
-        <v>26.53525906071448</v>
+        <v>27.0102788924414</v>
       </c>
       <c r="E142">
-        <v>27.46431307498236</v>
+        <v>27.41433398631474</v>
       </c>
       <c r="F142">
-        <v>27.56221006402103</v>
+        <v>27.40696932330306</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>27.28112483470924</v>
+        <v>27.3044364988528</v>
       </c>
       <c r="C143">
-        <v>27.66352589781862</v>
+        <v>27.45207088556896</v>
       </c>
       <c r="D143">
-        <v>26.40673367637354</v>
+        <v>26.87834131059082</v>
       </c>
       <c r="E143">
-        <v>27.33361100325149</v>
+        <v>27.28207533249911</v>
       </c>
       <c r="F143">
-        <v>27.4307793794635</v>
+        <v>27.27463601931543</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>27.14987777754165</v>
+        <v>27.17221338195822</v>
       </c>
       <c r="C144">
-        <v>27.53433997587015</v>
+        <v>27.31969211018688</v>
       </c>
       <c r="D144">
-        <v>26.2783339674345</v>
+        <v>26.74653526939269</v>
       </c>
       <c r="E144">
-        <v>27.20303544428432</v>
+        <v>27.14994123820197</v>
       </c>
       <c r="F144">
-        <v>27.29947212191239</v>
+        <v>27.1424345567683</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>27.0187575305378</v>
+        <v>27.04012135371149</v>
       </c>
       <c r="C145">
-        <v>27.40517731192451</v>
+        <v>27.18744526326277</v>
       </c>
       <c r="D145">
-        <v>26.15005986571228</v>
+        <v>26.61486066864784</v>
       </c>
       <c r="E145">
-        <v>27.07258674372757</v>
+        <v>27.01793232174565</v>
       </c>
       <c r="F145">
-        <v>27.16828865951989</v>
+        <v>27.01036486224772</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>26.88776439621985</v>
+        <v>26.90816039825945</v>
       </c>
       <c r="C146">
-        <v>27.27604408635935</v>
+        <v>27.05533026582646</v>
       </c>
       <c r="D146">
-        <v>26.02191130021845</v>
+        <v>26.48331743113649</v>
       </c>
       <c r="E146">
-        <v>26.94226520350015</v>
+        <v>26.88604914060432</v>
       </c>
       <c r="F146">
-        <v>27.03722931297187</v>
+        <v>26.87842685312935</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>26.75689864021535</v>
+        <v>26.77633048619001</v>
       </c>
       <c r="C147">
-        <v>27.14694602749769</v>
+        <v>26.92334703004929</v>
       </c>
       <c r="D147">
-        <v>25.89388819874821</v>
+        <v>26.35190546627624</v>
       </c>
       <c r="E147">
-        <v>26.81207108107584</v>
+        <v>26.75429215994325</v>
       </c>
       <c r="F147">
-        <v>26.90629435799018</v>
+        <v>26.74662044060713</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>26.6261604874338</v>
+        <v>26.64463157792775</v>
       </c>
       <c r="C148">
-        <v>27.01788847876246</v>
+        <v>26.79149546702605</v>
       </c>
       <c r="D148">
-        <v>25.76599048420359</v>
+        <v>26.22062465588483</v>
       </c>
       <c r="E148">
-        <v>26.68200460488227</v>
+        <v>26.62266180781421</v>
       </c>
       <c r="F148">
-        <v>26.77548403500604</v>
+        <v>26.61494553040291</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>26.49555013664545</v>
+        <v>26.51306362246292</v>
       </c>
       <c r="C149">
-        <v>26.88887639480205</v>
+        <v>26.65977547628975</v>
       </c>
       <c r="D149">
-        <v>25.63821807892549</v>
+        <v>26.0894749104345</v>
       </c>
       <c r="E149">
-        <v>26.55206597235685</v>
+        <v>26.49115843319461</v>
       </c>
       <c r="F149">
-        <v>26.64479854807403</v>
+        <v>26.48340202309349</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>26.36506775356546</v>
+        <v>26.38162656135231</v>
       </c>
       <c r="C150">
-        <v>26.75991440876968</v>
+        <v>26.52818695993097</v>
       </c>
       <c r="D150">
-        <v>25.51057090312765</v>
+        <v>25.9584561232883</v>
       </c>
       <c r="E150">
-        <v>26.42225534090485</v>
+        <v>26.35978235072022</v>
       </c>
       <c r="F150">
-        <v>26.51423807285318</v>
+        <v>26.35198981585627</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>26.23471348208256</v>
+        <v>26.25032032686841</v>
       </c>
       <c r="C151">
-        <v>26.63100681824963</v>
+        <v>26.39672980975085</v>
       </c>
       <c r="D151">
-        <v>25.38304887573204</v>
+        <v>25.82756817339796</v>
       </c>
       <c r="E151">
-        <v>26.29257285495037</v>
+        <v>26.22853382314873</v>
       </c>
       <c r="F151">
-        <v>26.38380275687001</v>
+        <v>26.22070880170547</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>26.10448744179076</v>
+        <v>26.11914484524403</v>
       </c>
       <c r="C152">
-        <v>26.50215766145845</v>
+        <v>26.26540391820917</v>
       </c>
       <c r="D152">
-        <v>25.25565191445718</v>
+        <v>25.69681095382705</v>
       </c>
       <c r="E152">
-        <v>26.16301862045738</v>
+        <v>26.09741307051656</v>
       </c>
       <c r="F152">
-        <v>26.25349272375637</v>
+        <v>26.08955887112369</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>25.97438973424787</v>
+        <v>25.98810003573548</v>
       </c>
       <c r="C153">
-        <v>26.37337067071682</v>
+        <v>26.1342091726467</v>
       </c>
       <c r="D153">
-        <v>25.12837993658265</v>
+        <v>25.56618434767478</v>
       </c>
       <c r="E153">
-        <v>26.03359273029238</v>
+        <v>25.96642028250785</v>
       </c>
       <c r="F153">
-        <v>26.12330807573047</v>
+        <v>25.95853991161543</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>25.84442044105902</v>
+        <v>25.85718581266453</v>
       </c>
       <c r="C154">
-        <v>26.24464937113945</v>
+        <v>26.00314545832062</v>
       </c>
       <c r="D154">
-        <v>25.00123285856681</v>
+        <v>25.43568823435272</v>
       </c>
       <c r="E154">
-        <v>25.90429525411569</v>
+        <v>25.83555561003882</v>
       </c>
       <c r="F154">
-        <v>25.99324889424847</v>
+        <v>25.82765180847966</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>25.71457963079243</v>
+        <v>25.72640208525658</v>
       </c>
       <c r="C155">
-        <v>26.11599701578292</v>
+        <v>25.8722126585259</v>
       </c>
       <c r="D155">
-        <v>24.87421059590193</v>
+        <v>25.3053224946137</v>
       </c>
       <c r="E155">
-        <v>25.77512624497566</v>
+        <v>25.70481918091404</v>
       </c>
       <c r="F155">
-        <v>25.86331524446803</v>
+        <v>25.69689444515661</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>25.58486735376544</v>
+        <v>25.59574875906608</v>
       </c>
       <c r="C156">
-        <v>25.98741667964091</v>
+        <v>25.74141065493766</v>
       </c>
       <c r="D156">
-        <v>24.74731306450845</v>
+        <v>25.17508700720465</v>
       </c>
       <c r="E156">
-        <v>25.64608574106889</v>
+        <v>25.57421109416952</v>
       </c>
       <c r="F156">
-        <v>25.73350717431298</v>
+        <v>25.56626770330931</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>25.4552836509603</v>
+        <v>25.4652257355182</v>
       </c>
       <c r="C157">
-        <v>25.85891120946228</v>
+        <v>25.61073932772223</v>
       </c>
       <c r="D157">
-        <v>24.62054017878356</v>
+        <v>25.04498165003225</v>
       </c>
       <c r="E157">
-        <v>25.51717376830288</v>
+        <v>25.44373143018656</v>
       </c>
       <c r="F157">
-        <v>25.60382471826922</v>
+        <v>25.43577146333128</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>25.32582854773307</v>
+        <v>25.33483291363334</v>
       </c>
       <c r="C158">
-        <v>25.73048329107355</v>
+        <v>25.48019855604647</v>
       </c>
       <c r="D158">
-        <v>24.49389185380434</v>
+        <v>24.91500630034035</v>
       </c>
       <c r="E158">
-        <v>25.3883903385216</v>
+        <v>25.31338024545366</v>
       </c>
       <c r="F158">
-        <v>25.47426789735306</v>
+        <v>25.30540560432931</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>25.1965020615072</v>
+        <v>25.2045701887852</v>
       </c>
       <c r="C159">
-        <v>25.60213542223569</v>
+        <v>25.34978821826864</v>
       </c>
       <c r="D159">
-        <v>24.36736800386917</v>
+        <v>24.78516083391101</v>
       </c>
       <c r="E159">
-        <v>25.25973545479872</v>
+        <v>25.18315758421608</v>
       </c>
       <c r="F159">
-        <v>25.34483672113527</v>
+        <v>25.17517000429804</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>25.0673041977375</v>
+        <v>25.07443745469975</v>
       </c>
       <c r="C160">
-        <v>25.47386995597532</v>
+        <v>25.21950819127708</v>
       </c>
       <c r="D160">
-        <v>24.24096854338168</v>
+        <v>24.65544512719158</v>
       </c>
       <c r="E160">
-        <v>25.13120910951375</v>
+        <v>25.05306346838367</v>
       </c>
       <c r="F160">
-        <v>25.21553118874943</v>
+        <v>25.04506454041384</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>24.93823495461496</v>
+        <v>24.94443460210463</v>
       </c>
       <c r="C161">
-        <v>25.34568908916216</v>
+        <v>25.08935835196626</v>
       </c>
       <c r="D161">
-        <v>24.11469338670401</v>
+        <v>24.52585905719647</v>
       </c>
       <c r="E161">
-        <v>25.00281128462262</v>
+        <v>24.92309791192417</v>
       </c>
       <c r="F161">
-        <v>25.08635128852258</v>
+        <v>24.91508908951884</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>24.80929432124569</v>
+        <v>24.8145615203343</v>
       </c>
       <c r="C162">
-        <v>25.21759488766839</v>
+        <v>24.95933857569471</v>
       </c>
       <c r="D162">
-        <v>23.98854244826862</v>
+        <v>24.39640249683777</v>
       </c>
       <c r="E162">
-        <v>24.8745419559479</v>
+        <v>24.79326090993848</v>
       </c>
       <c r="F162">
-        <v>24.95729700203786</v>
+        <v>24.78524352672366</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>24.68048228068106</v>
+        <v>24.68481809653406</v>
       </c>
       <c r="C163">
-        <v>25.08958928827174</v>
+        <v>24.82944873783304</v>
       </c>
       <c r="D163">
-        <v>23.8625156426392</v>
+        <v>24.26707532212221</v>
       </c>
       <c r="E163">
-        <v>24.74640108918265</v>
+        <v>24.66355245010459</v>
       </c>
       <c r="F163">
-        <v>24.8283683025183</v>
+        <v>24.65552772801555</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>24.55179880842332</v>
+        <v>24.55520421658905</v>
       </c>
       <c r="C164">
-        <v>24.96167410737064</v>
+        <v>24.69968871290065</v>
       </c>
       <c r="D164">
-        <v>23.73661288455632</v>
+        <v>24.13787740840235</v>
       </c>
       <c r="E164">
-        <v>24.61838864500597</v>
+        <v>24.5339725070382</v>
       </c>
       <c r="F164">
-        <v>24.6995651539888</v>
+        <v>24.52594156836498</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>24.4232438753359</v>
+        <v>24.42571976482911</v>
       </c>
       <c r="C165">
-        <v>24.83385105499005</v>
+        <v>24.57005837511925</v>
       </c>
       <c r="D165">
-        <v>23.61083408911815</v>
+        <v>24.00880862813304</v>
       </c>
       <c r="E165">
-        <v>24.49050457689902</v>
+        <v>24.40452104673397</v>
       </c>
       <c r="F165">
-        <v>24.57088751895128</v>
+        <v>24.39648492171198</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>24.29481744584645</v>
+        <v>24.29636462456388</v>
       </c>
       <c r="C166">
-        <v>24.70612173122312</v>
+        <v>24.44055759840421</v>
       </c>
       <c r="D166">
-        <v>23.48517917147432</v>
+        <v>23.87986885585859</v>
       </c>
       <c r="E166">
-        <v>24.36274883337306</v>
+        <v>24.27519802660475</v>
       </c>
       <c r="F166">
-        <v>24.44233534934421</v>
+        <v>24.26715766295731</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>24.16651948053042</v>
+        <v>24.1671386778876</v>
       </c>
       <c r="C167">
-        <v>24.57848764668628</v>
+        <v>24.31118625641579</v>
       </c>
       <c r="D167">
-        <v>23.35964804732171</v>
+        <v>23.75105796513535</v>
       </c>
       <c r="E167">
-        <v>24.23512135761562</v>
+        <v>24.1460033963335</v>
       </c>
       <c r="F167">
-        <v>24.31390859366909</v>
+        <v>24.13795966558107</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>24.03834993490201</v>
+        <v>24.03804180615661</v>
       </c>
       <c r="C168">
-        <v>24.45095021443171</v>
+        <v>24.18194422255929</v>
       </c>
       <c r="D168">
-        <v>23.23424063243373</v>
+        <v>23.62237582918851</v>
       </c>
       <c r="E168">
-        <v>24.10762208902157</v>
+        <v>24.01693709915966</v>
       </c>
       <c r="F168">
-        <v>24.18560719797331</v>
+        <v>24.0088908033353</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>23.91030876089865</v>
+        <v>23.90907388970846</v>
       </c>
       <c r="C169">
-        <v>24.32351077007679</v>
+        <v>24.05283137021665</v>
       </c>
       <c r="D169">
-        <v>23.10895684303041</v>
+        <v>23.49382232109851</v>
       </c>
       <c r="E169">
-        <v>23.98025096216871</v>
+        <v>23.8879990716025</v>
       </c>
       <c r="F169">
-        <v>24.05743109840432</v>
+        <v>23.87995094987621</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>23.78239590668115</v>
+        <v>23.78023480831232</v>
       </c>
       <c r="C170">
-        <v>24.19617056382609</v>
+        <v>23.92384757251641</v>
       </c>
       <c r="D170">
-        <v>22.98379659592846</v>
+        <v>23.36539731387707</v>
       </c>
       <c r="E170">
-        <v>23.85300790878953</v>
+        <v>23.75918924552949</v>
       </c>
       <c r="F170">
-        <v>23.92938023192976</v>
+        <v>23.75113997832019</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>23.65461131722941</v>
+        <v>23.65152444080968</v>
       </c>
       <c r="C171">
-        <v>24.06893077847381</v>
+        <v>23.79499270255668</v>
       </c>
       <c r="D171">
-        <v>22.85875980828319</v>
+        <v>23.23710068089915</v>
       </c>
       <c r="E171">
-        <v>23.72589285683788</v>
+        <v>23.63050754661735</v>
       </c>
       <c r="F171">
-        <v>23.80145453008585</v>
+        <v>23.62245776197203</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>23.52695493460676</v>
+        <v>23.52294266583954</v>
       </c>
       <c r="C172">
-        <v>23.94179252145108</v>
+        <v>23.66626663334741</v>
       </c>
       <c r="D172">
-        <v>22.73384639721729</v>
+        <v>23.10893229510324</v>
       </c>
       <c r="E172">
-        <v>23.59890573120125</v>
+        <v>23.50195389724108</v>
       </c>
       <c r="F172">
-        <v>23.67365391995777</v>
+        <v>23.49390417395659</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>23.39942669821591</v>
+        <v>23.39448936146156</v>
       </c>
       <c r="C173">
-        <v>23.81475684170326</v>
+        <v>23.53766923779082</v>
       </c>
       <c r="D173">
-        <v>22.60905628108826</v>
+        <v>22.9808920295995</v>
       </c>
       <c r="E173">
-        <v>23.47204645432504</v>
+        <v>23.37352821439006</v>
       </c>
       <c r="F173">
-        <v>23.54597832720652</v>
+        <v>23.36547908735345</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>23.27202654515241</v>
+        <v>23.26616440483161</v>
       </c>
       <c r="C174">
-        <v>23.68782472132821</v>
+        <v>23.40920038880879</v>
       </c>
       <c r="D174">
-        <v>22.48438937863944</v>
+        <v>22.85297975753209</v>
       </c>
       <c r="E174">
-        <v>23.3453149456761</v>
+        <v>23.24523041235977</v>
       </c>
       <c r="F174">
-        <v>23.41842767375738</v>
+        <v>23.2371823752775</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>23.14475441028451</v>
+        <v>23.1379676735489</v>
       </c>
       <c r="C175">
-        <v>23.56099709096901</v>
+        <v>23.28085995926547</v>
       </c>
       <c r="D175">
-        <v>22.35984560851896</v>
+        <v>22.72519535229171</v>
       </c>
       <c r="E175">
-        <v>23.21871112288034</v>
+        <v>23.11706040118759</v>
       </c>
       <c r="F175">
-        <v>23.29100187939712</v>
+        <v>23.10901391072798</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>23.01761022669364</v>
+        <v>23.00989904456641</v>
       </c>
       <c r="C176">
-        <v>23.43427482336699</v>
+        <v>23.15264782204868</v>
       </c>
       <c r="D176">
-        <v>22.23542489036586</v>
+        <v>22.59753868709094</v>
       </c>
       <c r="E176">
-        <v>23.09223490121447</v>
+        <v>22.98901808850602</v>
       </c>
       <c r="F176">
-        <v>23.16370086191927</v>
+        <v>22.98097356685648</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>22.890593925564</v>
+        <v>22.88195839397235</v>
       </c>
       <c r="C177">
-        <v>23.30765874384462</v>
+        <v>23.02456385006872</v>
       </c>
       <c r="D177">
-        <v>22.11112714453431</v>
+        <v>22.47000963508647</v>
       </c>
       <c r="E177">
-        <v>22.96588619437581</v>
+        <v>22.86110337865875</v>
       </c>
       <c r="F177">
-        <v>23.03652453625421</v>
+        <v>22.85306121681499</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>22.76370543671865</v>
+        <v>22.75414559855433</v>
       </c>
       <c r="C178">
-        <v>23.1811496288866</v>
+        <v>22.89660791627566</v>
       </c>
       <c r="D178">
-        <v>21.98695229176498</v>
+        <v>22.34260806987624</v>
       </c>
       <c r="E178">
-        <v>22.83966491420329</v>
+        <v>22.73331617389284</v>
       </c>
       <c r="F178">
-        <v>22.90947281650448</v>
+        <v>22.72527673365537</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>22.63694468840309</v>
+        <v>22.62646053446435</v>
       </c>
       <c r="C179">
-        <v>23.05474821099642</v>
+        <v>22.76877989365504</v>
       </c>
       <c r="D179">
-        <v>21.86290025306271</v>
+        <v>22.21533386479215</v>
       </c>
       <c r="E179">
-        <v>22.71357097133929</v>
+        <v>22.60565637390904</v>
       </c>
       <c r="F179">
-        <v>22.78254561459548</v>
+        <v>22.59761999066568</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>22.51031160781154</v>
+        <v>22.49890307729198</v>
       </c>
       <c r="C180">
-        <v>22.9284551811619</v>
+        <v>22.6410796552807</v>
       </c>
       <c r="D180">
-        <v>21.73897095051612</v>
+        <v>22.08818689324119</v>
       </c>
       <c r="E180">
-        <v>22.5876042747904</v>
+        <v>22.47812387650903</v>
       </c>
       <c r="F180">
-        <v>22.65574284046449</v>
+        <v>22.47009086106373</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>22.38380612088675</v>
+        <v>22.37147310307269</v>
       </c>
       <c r="C181">
-        <v>22.80227119020966</v>
+        <v>22.5135070742491</v>
       </c>
       <c r="D181">
-        <v>21.61516430668689</v>
+        <v>21.96116702881318</v>
       </c>
       <c r="E181">
-        <v>22.46176473269341</v>
+        <v>22.35071857759654</v>
       </c>
       <c r="F181">
-        <v>22.52906440358401</v>
+        <v>22.34268921813064</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>22.25742815275877</v>
+        <v>22.24417048743584</v>
       </c>
       <c r="C182">
-        <v>22.67619685203874</v>
+        <v>22.38606202377115</v>
       </c>
       <c r="D182">
-        <v>21.49148024467145</v>
+        <v>21.83427414512709</v>
       </c>
       <c r="E182">
-        <v>22.33605225190363</v>
+        <v>22.22344037130172</v>
       </c>
       <c r="F182">
-        <v>22.40251021117971</v>
+        <v>22.21541493526896</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>22.1311776275906</v>
+        <v>22.11699510578061</v>
       </c>
       <c r="C183">
-        <v>22.5502327435573</v>
+        <v>22.25874437709684</v>
       </c>
       <c r="D183">
-        <v>21.36791868830504</v>
+        <v>21.70750811585672</v>
       </c>
       <c r="E183">
-        <v>22.21046673839691</v>
+        <v>22.09628915036622</v>
       </c>
       <c r="F183">
-        <v>22.27608016973739</v>
+        <v>22.08826788589759</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>22.00505446894744</v>
+        <v>21.989946833634</v>
       </c>
       <c r="C184">
-        <v>22.4243794139407</v>
+        <v>22.13155400758274</v>
       </c>
       <c r="D184">
-        <v>21.24447956209332</v>
+        <v>21.58086881474328</v>
       </c>
       <c r="E184">
-        <v>22.08500809732079</v>
+        <v>21.96926480592852</v>
       </c>
       <c r="F184">
-        <v>22.14977418476576</v>
+        <v>21.96124794354747</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>21.87905859965159</v>
+        <v>21.86302554636459</v>
       </c>
       <c r="C185">
-        <v>22.29863737965652</v>
+        <v>22.00449078866136</v>
       </c>
       <c r="D185">
-        <v>21.12116279123459</v>
+        <v>21.45435611574351</v>
       </c>
       <c r="E185">
-        <v>21.95967623298441</v>
+        <v>21.8423672280649</v>
       </c>
       <c r="F185">
-        <v>22.02359216031789</v>
+        <v>21.83435498182822</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>21.75318994210894</v>
+        <v>21.73623111928228</v>
       </c>
       <c r="C186">
-        <v>22.17300711865216</v>
+        <v>21.87755459386006</v>
       </c>
       <c r="D186">
-        <v>20.99796830165997</v>
+        <v>21.32796989282617</v>
       </c>
       <c r="E186">
-        <v>21.83447104913516</v>
+        <v>21.71559630549849</v>
       </c>
       <c r="F186">
-        <v>21.89753399999308</v>
+        <v>21.70758887444554</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>21.62744841807425</v>
+        <v>21.60956342773736</v>
       </c>
       <c r="C187">
-        <v>22.04748909716287</v>
+        <v>21.75074529680423</v>
       </c>
       <c r="D187">
-        <v>20.87489601999978</v>
+        <v>21.20171002009851</v>
       </c>
       <c r="E187">
-        <v>21.70939244884654</v>
+        <v>21.58895192609096</v>
       </c>
       <c r="F187">
-        <v>21.77159960641305</v>
+        <v>21.58094949520711</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>21.50183394920472</v>
+        <v>21.48302234701484</v>
       </c>
       <c r="C188">
-        <v>21.92208375330179</v>
+        <v>21.62406277122142</v>
       </c>
       <c r="D188">
-        <v>20.75194587364449</v>
+        <v>21.07557637177488</v>
       </c>
       <c r="E188">
-        <v>21.58444033478588</v>
+        <v>21.46243397659192</v>
       </c>
       <c r="F188">
-        <v>21.64578888142428</v>
+        <v>21.45443671801174</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>21.37634645695361</v>
+        <v>21.35660775239819</v>
       </c>
       <c r="C189">
-        <v>21.79679148018771</v>
+        <v>21.49750689094017</v>
       </c>
       <c r="D189">
-        <v>20.629117790747</v>
+        <v>20.9495688222188</v>
       </c>
       <c r="E189">
-        <v>21.45961460910256</v>
+        <v>21.33604234304814</v>
       </c>
       <c r="F189">
-        <v>21.52010172642318</v>
+        <v>21.32805041687575</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>21.25098586194208</v>
+        <v>21.23031951926675</v>
       </c>
       <c r="C190">
-        <v>21.67161267228706</v>
+        <v>21.37107752989481</v>
       </c>
       <c r="D190">
-        <v>20.50641170024801</v>
+        <v>20.82368724591021</v>
       </c>
       <c r="E190">
-        <v>21.33491517368627</v>
+        <v>21.20977691043824</v>
       </c>
       <c r="F190">
-        <v>21.39453804198971</v>
+        <v>21.20179046593038</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>21.1257520854327</v>
+        <v>21.10415752292924</v>
       </c>
       <c r="C191">
-        <v>21.54654769745242</v>
+        <v>21.24477456214424</v>
       </c>
       <c r="D191">
-        <v>20.38382753188969</v>
+        <v>20.69793151736337</v>
       </c>
       <c r="E191">
-        <v>21.21034193001833</v>
+        <v>21.08363756336604</v>
       </c>
       <c r="F191">
-        <v>21.26909772837847</v>
+        <v>21.07565673938468</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>21.00064504856658</v>
+        <v>20.97812163872953</v>
       </c>
       <c r="C192">
-        <v>21.42159688775458</v>
+        <v>21.11859786185301</v>
       </c>
       <c r="D192">
-        <v>20.26136521621488</v>
+        <v>20.57230151131024</v>
       </c>
       <c r="E192">
-        <v>21.08589477944099</v>
+        <v>20.9576241858822</v>
       </c>
       <c r="F192">
-        <v>21.14378068540323</v>
+        <v>20.9496491115957</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>20.87566467179311</v>
+        <v>20.85221174213727</v>
       </c>
       <c r="C193">
-        <v>21.29676056814143</v>
+        <v>20.99254730327111</v>
       </c>
       <c r="D193">
-        <v>20.1390246845794</v>
+        <v>20.44679710256531</v>
       </c>
       <c r="E193">
-        <v>20.9615736229446</v>
+        <v>20.83173666085794</v>
       </c>
       <c r="F193">
-        <v>21.01858681222889</v>
+        <v>20.82376745701694</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>20.75081087616679</v>
+        <v>20.72642770857216</v>
       </c>
       <c r="C194">
-        <v>21.17203904521221</v>
+        <v>20.86662276081541</v>
       </c>
       <c r="D194">
-        <v>20.01680586922009</v>
+        <v>20.32141816601872</v>
       </c>
       <c r="E194">
-        <v>20.8373783614955</v>
+        <v>20.70597487120273</v>
       </c>
       <c r="F194">
-        <v>20.89351600795398</v>
+        <v>20.69801165020884</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>20.62608358298593</v>
+        <v>20.60076941352072</v>
       </c>
       <c r="C195">
-        <v>21.0474326017569</v>
+        <v>20.74082410901258</v>
       </c>
       <c r="D195">
-        <v>19.89470870322587</v>
+        <v>20.19616457672497</v>
       </c>
       <c r="E195">
-        <v>20.71330889604226</v>
+        <v>20.58033869959434</v>
       </c>
       <c r="F195">
-        <v>20.76856817121325</v>
+        <v>20.57238156586337</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>20.50148271324185</v>
+        <v>20.47523673257389</v>
       </c>
       <c r="C196">
-        <v>20.92294150446221</v>
+        <v>20.61515122244557</v>
       </c>
       <c r="D196">
-        <v>19.77273312055908</v>
+        <v>20.07103620984352</v>
       </c>
       <c r="E196">
-        <v>20.58936512730177</v>
+        <v>20.45482802773753</v>
       </c>
       <c r="F196">
-        <v>20.64374320031753</v>
+        <v>20.44687707877965</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>20.37700818819617</v>
+        <v>20.34982954133629</v>
       </c>
       <c r="C197">
-        <v>20.79856600810709</v>
+        <v>20.48960397589123</v>
       </c>
       <c r="D197">
-        <v>19.65087905608634</v>
+        <v>19.94603294065713</v>
       </c>
       <c r="E197">
-        <v>20.46554695592589</v>
+        <v>20.32944273687051</v>
       </c>
       <c r="F197">
-        <v>20.51904099349409</v>
+        <v>20.32149806388025</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>20.25265992964644</v>
+        <v>20.22454771549425</v>
       </c>
       <c r="C198">
-        <v>20.67430634971637</v>
+        <v>20.3641822442315</v>
       </c>
       <c r="D198">
-        <v>19.52914644558577</v>
+        <v>19.82115464456157</v>
       </c>
       <c r="E198">
-        <v>20.3418542829528</v>
+        <v>20.20418270863599</v>
       </c>
       <c r="F198">
-        <v>20.39446144861225</v>
+        <v>20.19624439620793</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>20.12843785945222</v>
+        <v>20.09939113082172</v>
       </c>
       <c r="C199">
-        <v>20.55016275048726</v>
+        <v>20.23888590243578</v>
       </c>
       <c r="D199">
-        <v>19.40753522579296</v>
+        <v>19.6964011970875</v>
       </c>
       <c r="E199">
-        <v>20.2182870093489</v>
+        <v>20.07904782399154</v>
       </c>
       <c r="F199">
-        <v>20.27000446348359</v>
+        <v>20.07111595092742</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>20.00434189971244</v>
+        <v>19.97435966315519</v>
       </c>
       <c r="C200">
-        <v>20.42613542170463</v>
+        <v>20.11371482562097</v>
       </c>
       <c r="D200">
-        <v>19.28604533441369</v>
+        <v>19.57177247389662</v>
       </c>
       <c r="E200">
-        <v>20.09484503568148</v>
+        <v>19.95403796307058</v>
       </c>
       <c r="F200">
-        <v>20.14566993577887</v>
+        <v>19.94611260332758</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>19.88037197309619</v>
+        <v>19.84945318842381</v>
       </c>
       <c r="C201">
-        <v>20.30222456065633</v>
+        <v>19.98866888903129</v>
       </c>
       <c r="D201">
-        <v>19.16467671009183</v>
+        <v>19.44726835076684</v>
       </c>
       <c r="E201">
-        <v>19.97152826332932</v>
+        <v>19.82915300657129</v>
       </c>
       <c r="F201">
-        <v>20.02145776300656</v>
+        <v>19.82123422881969</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>19.75652800259764</v>
+        <v>19.72467158265088</v>
       </c>
       <c r="C202">
-        <v>20.17843034931076</v>
+        <v>19.86374796802485</v>
       </c>
       <c r="D202">
-        <v>19.04342929247963</v>
+        <v>19.32288870360712</v>
       </c>
       <c r="E202">
-        <v>19.84833659368188</v>
+        <v>19.70439283473757</v>
       </c>
       <c r="F202">
-        <v>19.89736784269191</v>
+        <v>19.69648070294037</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>19.63280991160455</v>
+        <v>19.60001472193163</v>
       </c>
       <c r="C203">
-        <v>20.05475296286079</v>
+        <v>19.73895193808278</v>
       </c>
       <c r="D203">
-        <v>18.92230302233249</v>
+        <v>19.19863340845679</v>
       </c>
       <c r="E203">
-        <v>19.72526992784047</v>
+        <v>19.57975732724634</v>
       </c>
       <c r="F203">
-        <v>19.77340007226949</v>
+        <v>19.57185190135477</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>19.50921762408971</v>
+        <v>19.47548248247369</v>
       </c>
       <c r="C204">
-        <v>19.93119256489276</v>
+        <v>19.61428067481894</v>
       </c>
       <c r="D204">
-        <v>18.80129784135764</v>
+        <v>19.07450234148788</v>
       </c>
       <c r="E204">
-        <v>19.60232816756244</v>
+        <v>19.45524636402686</v>
       </c>
       <c r="F204">
-        <v>19.649554349153</v>
+        <v>19.44734769984666</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>19.3857510645253</v>
+        <v>19.35107474058798</v>
       </c>
       <c r="C205">
-        <v>19.80774930334057</v>
+        <v>19.48973405397051</v>
       </c>
       <c r="D205">
-        <v>18.6804136923519</v>
+        <v>18.9504953789872</v>
       </c>
       <c r="E205">
-        <v>19.4795112147783</v>
+        <v>19.33085982475579</v>
       </c>
       <c r="F205">
-        <v>19.5258305708218</v>
+        <v>19.32296797433325</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>19.26241015785674</v>
+        <v>19.22679137265445</v>
       </c>
       <c r="C206">
-        <v>19.68442332229752</v>
+        <v>19.3653119514011</v>
       </c>
       <c r="D206">
-        <v>18.55965051923586</v>
+        <v>18.82661239737918</v>
       </c>
       <c r="E206">
-        <v>19.3568189715554</v>
+        <v>19.20659758888823</v>
       </c>
       <c r="F206">
-        <v>19.40222863469591</v>
+        <v>19.1987126008561</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>19.13919482974718</v>
+        <v>19.1026322551834</v>
       </c>
       <c r="C207">
-        <v>19.56121475529826</v>
+        <v>19.24101424310339</v>
       </c>
       <c r="D207">
-        <v>18.43900826705215</v>
+        <v>18.70285327321984</v>
       </c>
       <c r="E207">
-        <v>19.23425134023156</v>
+        <v>19.08245953586899</v>
       </c>
       <c r="F207">
-        <v>19.27874843832557</v>
+        <v>19.07458145558132</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>19.01610500647152</v>
+        <v>18.97859726478915</v>
       </c>
       <c r="C208">
-        <v>19.43812372364044</v>
+        <v>19.11684080519825</v>
       </c>
       <c r="D208">
-        <v>18.31848688193715</v>
+        <v>18.5792178831823</v>
       </c>
       <c r="E208">
-        <v>19.11180822355943</v>
+        <v>18.95844554508722</v>
       </c>
       <c r="F208">
-        <v>19.15538987931547</v>
+        <v>18.95057441480612</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>18.89314061481879</v>
+        <v>18.85468627816563</v>
       </c>
       <c r="C209">
-        <v>19.315150342448</v>
+        <v>18.99279151393037</v>
       </c>
       <c r="D209">
-        <v>18.19808631120712</v>
+        <v>18.45570610407669</v>
       </c>
       <c r="E209">
-        <v>18.98948952457205</v>
+        <v>18.83455549579082</v>
       </c>
       <c r="F209">
-        <v>19.03215285531834</v>
+        <v>18.82669135495388</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>18.77030158243207</v>
+        <v>18.73089917213994</v>
       </c>
       <c r="C210">
-        <v>19.19229471945107</v>
+        <v>18.86886624567926</v>
       </c>
       <c r="D210">
-        <v>18.07780650343976</v>
+        <v>18.33231781283983</v>
       </c>
       <c r="E210">
-        <v>18.86729514661536</v>
+        <v>18.71078926717612</v>
       </c>
       <c r="F210">
-        <v>18.90903726415506</v>
+        <v>18.70293215257663</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>18.64758783764308</v>
+        <v>18.60723582364346</v>
       </c>
       <c r="C211">
-        <v>19.06955695301169</v>
+        <v>18.74506487695294</v>
       </c>
       <c r="D211">
-        <v>17.95764740834417</v>
+        <v>18.20905288653966</v>
       </c>
       <c r="E211">
-        <v>18.74522499347318</v>
+        <v>18.58714673850817</v>
       </c>
       <c r="F211">
-        <v>18.78604300374218</v>
+        <v>18.57929668435548</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>18.52499930945008</v>
+        <v>18.48369610970758</v>
       </c>
       <c r="C212">
-        <v>18.94693713402047</v>
+        <v>18.62138728438213</v>
       </c>
       <c r="D212">
-        <v>17.83760897689238</v>
+        <v>18.08591120237137</v>
       </c>
       <c r="E212">
-        <v>18.62327896931811</v>
+        <v>18.46362778896271</v>
       </c>
       <c r="F212">
-        <v>18.66316997214166</v>
+        <v>18.4557848271005</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>18.40253592770305</v>
+        <v>18.36027990748817</v>
       </c>
       <c r="C213">
-        <v>18.8244353478995</v>
+        <v>18.49783334473217</v>
       </c>
       <c r="D213">
-        <v>17.71769116137704</v>
+        <v>17.96289263766104</v>
       </c>
       <c r="E213">
-        <v>18.50145697866758</v>
+        <v>18.34023229758041</v>
       </c>
       <c r="F213">
-        <v>18.54041806760083</v>
+        <v>18.33239645775157</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>18.28019762306753</v>
+        <v>18.23698709425274</v>
       </c>
       <c r="C214">
-        <v>18.7020516725591</v>
+        <v>18.37440293489902</v>
       </c>
       <c r="D214">
-        <v>17.59789391538677</v>
+        <v>17.83999706986898</v>
       </c>
       <c r="E214">
-        <v>18.37975892656068</v>
+        <v>18.21696014358907</v>
       </c>
       <c r="F214">
-        <v>18.41778718851214</v>
+        <v>18.20913145337811</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>18.15798432702918</v>
+        <v>18.11381754737998</v>
       </c>
       <c r="C215">
-        <v>18.57978617874307</v>
+        <v>18.25109593190541</v>
       </c>
       <c r="D215">
-        <v>17.47821719379363</v>
+        <v>17.71722437658294</v>
       </c>
       <c r="E215">
-        <v>18.25818471848328</v>
+        <v>18.0938112061684</v>
       </c>
       <c r="F215">
-        <v>18.29527723349214</v>
+        <v>18.08598969117948</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>18.03589597195459</v>
+        <v>17.99077114437145</v>
       </c>
       <c r="C216">
-        <v>18.45763893278777</v>
+        <v>18.12791221290348</v>
       </c>
       <c r="D216">
-        <v>17.35866095285448</v>
+        <v>17.59457443552323</v>
       </c>
       <c r="E216">
-        <v>18.13673426034568</v>
+        <v>17.97078536435781</v>
       </c>
       <c r="F216">
-        <v>18.17288810135842</v>
+        <v>17.96297104848611</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>17.91393249112699</v>
+        <v>17.86784776284604</v>
       </c>
       <c r="C217">
-        <v>18.3356099948682</v>
+        <v>18.0048516551785</v>
       </c>
       <c r="D217">
-        <v>17.23922515032131</v>
+        <v>17.47204712454162</v>
       </c>
       <c r="E217">
-        <v>18.01540745856157</v>
+        <v>17.84788249738849</v>
       </c>
       <c r="F217">
-        <v>18.0506196911385</v>
+        <v>17.84007540275685</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>17.79209381876987</v>
+        <v>17.74504728053686</v>
       </c>
       <c r="C218">
-        <v>18.21369941833792</v>
+        <v>17.88191413614495</v>
       </c>
       <c r="D218">
-        <v>17.11990974524833</v>
+        <v>17.3496423216225</v>
       </c>
       <c r="E218">
-        <v>17.89420422010266</v>
+        <v>17.72510248447462</v>
       </c>
       <c r="F218">
-        <v>17.92847190212106</v>
+        <v>17.71730263158321</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>17.67037989008169</v>
+        <v>17.62236957530425</v>
       </c>
       <c r="C219">
-        <v>18.09190725325153</v>
+        <v>17.7590995333476</v>
       </c>
       <c r="D219">
-        <v>17.00071469818011</v>
+        <v>17.2273599048814</v>
       </c>
       <c r="E219">
-        <v>17.77312445244286</v>
+        <v>17.60244520480085</v>
       </c>
       <c r="F219">
-        <v>17.8064446338315</v>
+        <v>17.59465261268807</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>17.54879064125828</v>
+        <v>17.49981452512835</v>
       </c>
       <c r="C220">
-        <v>17.97023354447125</v>
+        <v>17.63640772446275</v>
       </c>
       <c r="D220">
-        <v>16.88163997123969</v>
+        <v>17.10519975256472</v>
       </c>
       <c r="E220">
-        <v>17.65216806356633</v>
+        <v>17.47991053764182</v>
       </c>
       <c r="F220">
-        <v>17.68453778606354</v>
+        <v>17.47212522392604</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>17.42732600953955</v>
+        <v>17.37738200810559</v>
       </c>
       <c r="C221">
-        <v>17.84867833047094</v>
+        <v>17.51383858729771</v>
       </c>
       <c r="D221">
-        <v>16.76268552805452</v>
+        <v>16.98316174305325</v>
       </c>
       <c r="E221">
-        <v>17.53133496207894</v>
+        <v>17.35749836232317</v>
       </c>
       <c r="F221">
-        <v>17.56275125889995</v>
+        <v>17.34972034327834</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>17.30598593324547</v>
+        <v>17.25507190246278</v>
       </c>
       <c r="C222">
-        <v>17.72724164714475</v>
+        <v>17.39139199979207</v>
       </c>
       <c r="D222">
-        <v>16.6438513337698</v>
+        <v>16.86124575485899</v>
       </c>
       <c r="E222">
-        <v>17.41062505715499</v>
+        <v>17.23520855820099</v>
       </c>
       <c r="F222">
-        <v>17.44108495268657</v>
+        <v>17.22743784886327</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>17.18477035178544</v>
+        <v>17.1328840865483</v>
       </c>
       <c r="C223">
-        <v>17.60592352586355</v>
+        <v>17.26906784001637</v>
       </c>
       <c r="D223">
-        <v>16.52513735517653</v>
+        <v>16.73945166662624</v>
       </c>
       <c r="E223">
-        <v>17.29003825856346</v>
+        <v>17.1130410046899</v>
       </c>
       <c r="F223">
-        <v>17.31953876810731</v>
+        <v>17.10527761893059</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>17.06367920571253</v>
+        <v>17.0108184388309</v>
       </c>
       <c r="C224">
-        <v>17.48472399302725</v>
+        <v>17.14686598617346</v>
       </c>
       <c r="D224">
-        <v>16.40654356083259</v>
+        <v>16.61777935713268</v>
       </c>
       <c r="E224">
-        <v>17.16957447670661</v>
+        <v>16.9909955812907</v>
       </c>
       <c r="F224">
-        <v>17.19811260616304</v>
+        <v>16.98323953186248</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>16.9427124367688</v>
+        <v>16.88887483790964</v>
       </c>
       <c r="C225">
-        <v>17.36364307173526</v>
+        <v>17.02478631659833</v>
       </c>
       <c r="D225">
-        <v>16.28806992083251</v>
+        <v>16.49622870528931</v>
       </c>
       <c r="E225">
-        <v>17.0492336226252</v>
+        <v>16.86907216755946</v>
       </c>
       <c r="F225">
-        <v>17.07680636819428</v>
+        <v>16.86132346616817</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>16.82186998788035</v>
+        <v>16.76705316250776</v>
       </c>
       <c r="C226">
-        <v>17.24268078187116</v>
+        <v>16.90282870975857</v>
       </c>
       <c r="D226">
-        <v>16.16971640703995</v>
+        <v>16.37479959014034</v>
       </c>
       <c r="E226">
-        <v>16.92901560803526</v>
+        <v>16.74727064310403</v>
       </c>
       <c r="F226">
-        <v>16.95561995581625</v>
+        <v>16.73952930049526</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>16.70115180321935</v>
+        <v>16.64535329147327</v>
       </c>
       <c r="C227">
-        <v>17.12183713929988</v>
+        <v>16.7809930442545</v>
       </c>
       <c r="D227">
-        <v>16.05148299321433</v>
+        <v>16.25349189086319</v>
       </c>
       <c r="E227">
-        <v>16.80892034533168</v>
+        <v>16.62559088764818</v>
       </c>
       <c r="F227">
-        <v>16.83455327109213</v>
+        <v>16.6178569136232</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>16.58055782827694</v>
+        <v>16.5237751037838</v>
       </c>
       <c r="C228">
-        <v>17.00111215642801</v>
+        <v>16.65927919881907</v>
       </c>
       <c r="D228">
-        <v>15.93336965487195</v>
+        <v>16.13230548677035</v>
       </c>
       <c r="E228">
-        <v>16.68894774760495</v>
+        <v>16.5040327809878</v>
       </c>
       <c r="F228">
-        <v>16.71360621643514</v>
+        <v>16.49630618446444</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>16.46008800981387</v>
+        <v>16.40231847854399</v>
       </c>
       <c r="C229">
-        <v>16.88050584322395</v>
+        <v>16.53768705231827</v>
       </c>
       <c r="D229">
-        <v>15.81537636935246</v>
+        <v>16.01124025730798</v>
       </c>
       <c r="E229">
-        <v>16.56909772867852</v>
+        <v>16.38259620295956</v>
       </c>
       <c r="F229">
-        <v>16.59277869465092</v>
+        <v>16.37487699206259</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>16.33974229595083</v>
+        <v>16.28098329498621</v>
       </c>
       <c r="C230">
-        <v>16.76001820637707</v>
+        <v>16.4162164837518</v>
       </c>
       <c r="D230">
-        <v>15.69750311596659</v>
+        <v>15.89029608205669</v>
       </c>
       <c r="E230">
-        <v>16.44937020313336</v>
+        <v>16.26128103354023</v>
       </c>
       <c r="F230">
-        <v>16.47207060885859</v>
+        <v>16.25356921559712</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>16.21952063626141</v>
+        <v>16.15976943247323</v>
       </c>
       <c r="C231">
-        <v>16.63964924932806</v>
+        <v>16.29486737225278</v>
       </c>
       <c r="D231">
-        <v>15.57974987612857</v>
+        <v>15.76947284073293</v>
       </c>
       <c r="E231">
-        <v>16.32976508629534</v>
+        <v>16.14008715278629</v>
       </c>
       <c r="F231">
-        <v>16.35148186268393</v>
+        <v>16.13238273438074</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>16.0994229816989</v>
+        <v>16.0386767704969</v>
       </c>
       <c r="C232">
-        <v>16.51939897359278</v>
+        <v>16.17363959708819</v>
       </c>
       <c r="D232">
-        <v>15.46211663308402</v>
+        <v>15.64877041318746</v>
       </c>
       <c r="E232">
-        <v>16.21028229428329</v>
+        <v>16.01901444081656</v>
       </c>
       <c r="F232">
-        <v>16.23101236015154</v>
+        <v>16.01131742786009</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>15.97944928468946</v>
+        <v>15.91770518867875</v>
       </c>
       <c r="C233">
-        <v>16.39926737800025</v>
+        <v>16.05253303765902</v>
       </c>
       <c r="D233">
-        <v>15.34460337219732</v>
+        <v>15.52818867940665</v>
       </c>
       <c r="E233">
-        <v>16.0909217440543</v>
+        <v>15.89806277787178</v>
       </c>
       <c r="F233">
-        <v>16.1106620057233</v>
+        <v>15.8903731756178</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>15.85959949923648</v>
+        <v>15.79685456677228</v>
       </c>
       <c r="C234">
-        <v>16.27925445840058</v>
+        <v>15.93154757350061</v>
       </c>
       <c r="D234">
-        <v>15.22721008114341</v>
+        <v>15.40772751951255</v>
       </c>
       <c r="E234">
-        <v>15.9716833533639</v>
+        <v>15.77723204429249</v>
       </c>
       <c r="F234">
-        <v>15.99043070427926</v>
+        <v>15.76954985736946</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>15.73987358087929</v>
+        <v>15.67612478466127</v>
       </c>
       <c r="C235">
-        <v>16.15936020916322</v>
+        <v>15.81068308428387</v>
       </c>
       <c r="D235">
-        <v>15.10993674965589</v>
+        <v>15.28738681376462</v>
       </c>
       <c r="E235">
-        <v>15.85256704082819</v>
+        <v>15.65652212050794</v>
       </c>
       <c r="F235">
-        <v>15.8703183611941</v>
+        <v>15.64884735296605</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>15.62027148673263</v>
+        <v>15.5555157223608</v>
       </c>
       <c r="C236">
-        <v>16.03958462241648</v>
+        <v>15.68993944981366</v>
       </c>
       <c r="D236">
-        <v>14.99278336968473</v>
+        <v>15.16716644255829</v>
       </c>
       <c r="E236">
-        <v>15.73357272597245</v>
+        <v>15.53593288705063</v>
       </c>
       <c r="F236">
-        <v>15.75032488231134</v>
+        <v>15.52826554239373</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>15.50079317562018</v>
+        <v>15.43502726002028</v>
       </c>
       <c r="C237">
-        <v>15.91992768774408</v>
+        <v>15.56931655003032</v>
       </c>
       <c r="D237">
-        <v>14.87574993556933</v>
+        <v>15.04706628642476</v>
       </c>
       <c r="E237">
-        <v>15.61470032920746</v>
+        <v>15.41546422456923</v>
       </c>
       <c r="F237">
-        <v>15.63045017396118</v>
+        <v>15.40780430577761</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>15.3814386080796</v>
+        <v>15.31465927792191</v>
       </c>
       <c r="C238">
-        <v>15.80038939340203</v>
+        <v>15.44881426501092</v>
       </c>
       <c r="D238">
-        <v>14.75883644417665</v>
+        <v>14.92708622603267</v>
       </c>
       <c r="E238">
-        <v>15.49594977185687</v>
+        <v>15.29511601381441</v>
       </c>
       <c r="F238">
-        <v>15.51069414301268</v>
+        <v>15.28746352337534</v>
       </c>
     </row>
   </sheetData>
